--- a/项目管理/进度计划/Demo-里程碑5/Demo-里程碑5计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑5/Demo-里程碑5计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="600" windowWidth="38400" windowHeight="18940" tabRatio="349" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="349" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑5" sheetId="1" r:id="rId1"/>
@@ -5395,10 +5395,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>充值功能测试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>商店功能测试</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -5490,16 +5486,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>充值复查bug</t>
-    <rPh sb="0" eb="1">
-      <t>chong'zhi</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>fu'cha</t>
-    </rPh>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>道具tips逻辑测试，复查bug</t>
     <rPh sb="0" eb="1">
       <t>dao'ju</t>
@@ -6020,6 +6006,55 @@
   </si>
   <si>
     <t>Jira及时更新</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>功能测试</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商城</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复查bug</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>fu'cha</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6771,7 +6806,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7158,6 +7193,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="309">
     <cellStyle name="Normal 2" xfId="298"/>
@@ -9511,12 +9549,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M121"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F78" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A3" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <pane xSplit="5" ySplit="11" topLeftCell="F22" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="F3" sqref="F3"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -9524,7 +9562,7 @@
     <col min="1" max="1" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" style="8" customWidth="1"/>
     <col min="3" max="3" width="6" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" style="7"/>
     <col min="7" max="7" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
@@ -9559,7 +9597,7 @@
         <v>140</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="11" t="s">
@@ -9592,7 +9630,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="11" t="s">
@@ -9608,7 +9646,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="11" t="s">
@@ -9625,7 +9663,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="s">
@@ -9641,7 +9679,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
@@ -9659,7 +9697,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="11" t="s">
@@ -9674,7 +9712,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -9707,7 +9745,7 @@
       </c>
       <c r="M12" s="18"/>
     </row>
-    <row r="13" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="13" spans="1:13" s="8" customFormat="1">
       <c r="A13" s="18" t="s">
         <v>9</v>
       </c>
@@ -9748,7 +9786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="14" spans="1:13" s="8" customFormat="1">
       <c r="A14" s="5">
         <v>1</v>
       </c>
@@ -9778,7 +9816,7 @@
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
-    <row r="15" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="15" spans="1:13" s="8" customFormat="1">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -9809,7 +9847,7 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="16" spans="1:13" s="8" customFormat="1">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -9840,7 +9878,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" s="8" customFormat="1" ht="15">
+    <row r="17" spans="1:13" s="8" customFormat="1">
       <c r="A17" s="5">
         <v>4</v>
       </c>
@@ -9875,7 +9913,7 @@
       </c>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:13" ht="15">
+    <row r="18" spans="1:13">
       <c r="A18" s="5">
         <v>5</v>
       </c>
@@ -9905,7 +9943,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
     </row>
-    <row r="19" spans="1:13" ht="15">
+    <row r="19" spans="1:13">
       <c r="A19" s="5">
         <v>6</v>
       </c>
@@ -9938,7 +9976,7 @@
       </c>
       <c r="M19" s="6"/>
     </row>
-    <row r="20" spans="1:13" ht="15">
+    <row r="20" spans="1:13">
       <c r="A20" s="5">
         <v>7</v>
       </c>
@@ -9973,7 +10011,7 @@
       </c>
       <c r="M20" s="6"/>
     </row>
-    <row r="21" spans="1:13" ht="15">
+    <row r="21" spans="1:13">
       <c r="A21" s="5">
         <v>8</v>
       </c>
@@ -10002,7 +10040,7 @@
       <c r="L21" s="22"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:13" ht="15">
+    <row r="22" spans="1:13">
       <c r="A22" s="5">
         <v>9</v>
       </c>
@@ -10029,7 +10067,7 @@
       <c r="L22" s="22"/>
       <c r="M22" s="6"/>
     </row>
-    <row r="23" spans="1:13" ht="15">
+    <row r="23" spans="1:13">
       <c r="A23" s="5">
         <v>10</v>
       </c>
@@ -10061,7 +10099,7 @@
       <c r="L23" s="22"/>
       <c r="M23" s="6"/>
     </row>
-    <row r="24" spans="1:13" ht="15">
+    <row r="24" spans="1:13">
       <c r="A24" s="5">
         <v>11</v>
       </c>
@@ -10090,7 +10128,7 @@
       <c r="L24" s="22"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13" ht="15">
+    <row r="25" spans="1:13">
       <c r="A25" s="5">
         <v>12</v>
       </c>
@@ -10119,7 +10157,7 @@
       <c r="L25" s="22"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:13" ht="15">
+    <row r="26" spans="1:13">
       <c r="A26" s="5">
         <v>13</v>
       </c>
@@ -10151,7 +10189,7 @@
       </c>
       <c r="M26" s="6"/>
     </row>
-    <row r="27" spans="1:13" ht="15">
+    <row r="27" spans="1:13">
       <c r="A27" s="5">
         <v>14</v>
       </c>
@@ -10178,7 +10216,7 @@
       <c r="L27" s="22"/>
       <c r="M27" s="6"/>
     </row>
-    <row r="28" spans="1:13" ht="15">
+    <row r="28" spans="1:13">
       <c r="A28" s="5">
         <v>15</v>
       </c>
@@ -10209,7 +10247,7 @@
       <c r="L28" s="23"/>
       <c r="M28" s="6"/>
     </row>
-    <row r="29" spans="1:13" ht="15">
+    <row r="29" spans="1:13">
       <c r="A29" s="5">
         <v>16</v>
       </c>
@@ -10240,7 +10278,7 @@
       <c r="L29" s="22"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:13" ht="15">
+    <row r="30" spans="1:13">
       <c r="A30" s="5">
         <v>17</v>
       </c>
@@ -10271,7 +10309,7 @@
       <c r="L30" s="22"/>
       <c r="M30" s="6"/>
     </row>
-    <row r="31" spans="1:13" ht="15">
+    <row r="31" spans="1:13">
       <c r="A31" s="5">
         <v>18</v>
       </c>
@@ -10302,7 +10340,7 @@
       <c r="L31" s="23"/>
       <c r="M31" s="6"/>
     </row>
-    <row r="32" spans="1:13" ht="15">
+    <row r="32" spans="1:13">
       <c r="A32" s="5">
         <v>19</v>
       </c>
@@ -10333,7 +10371,7 @@
       <c r="L32" s="23"/>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" ht="15">
+    <row r="33" spans="1:13">
       <c r="A33" s="5">
         <v>20</v>
       </c>
@@ -10361,7 +10399,7 @@
       <c r="L33" s="45"/>
       <c r="M33" s="45"/>
     </row>
-    <row r="34" spans="1:13" ht="15">
+    <row r="34" spans="1:13">
       <c r="A34" s="5">
         <v>21</v>
       </c>
@@ -10390,7 +10428,7 @@
       <c r="L34" s="45"/>
       <c r="M34" s="45"/>
     </row>
-    <row r="35" spans="1:13" ht="15">
+    <row r="35" spans="1:13">
       <c r="A35" s="5">
         <v>22</v>
       </c>
@@ -10419,7 +10457,7 @@
       <c r="L35" s="45"/>
       <c r="M35" s="45"/>
     </row>
-    <row r="36" spans="1:13" ht="15">
+    <row r="36" spans="1:13">
       <c r="A36" s="5">
         <v>23</v>
       </c>
@@ -10448,7 +10486,7 @@
       <c r="L36" s="45"/>
       <c r="M36" s="45"/>
     </row>
-    <row r="37" spans="1:13" ht="15">
+    <row r="37" spans="1:13">
       <c r="A37" s="5">
         <v>24</v>
       </c>
@@ -10477,7 +10515,7 @@
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
     </row>
-    <row r="38" spans="1:13" ht="15">
+    <row r="38" spans="1:13">
       <c r="A38" s="5">
         <v>25</v>
       </c>
@@ -10506,7 +10544,7 @@
       <c r="L38" s="45"/>
       <c r="M38" s="45"/>
     </row>
-    <row r="39" spans="1:13" ht="15">
+    <row r="39" spans="1:13">
       <c r="A39" s="5">
         <v>26</v>
       </c>
@@ -10535,7 +10573,7 @@
       <c r="L39" s="23"/>
       <c r="M39" s="6"/>
     </row>
-    <row r="40" spans="1:13" ht="15">
+    <row r="40" spans="1:13">
       <c r="A40" s="5">
         <v>27</v>
       </c>
@@ -10564,7 +10602,7 @@
       <c r="L40" s="23"/>
       <c r="M40" s="6"/>
     </row>
-    <row r="41" spans="1:13" ht="15">
+    <row r="41" spans="1:13">
       <c r="A41" s="5">
         <v>28</v>
       </c>
@@ -10593,7 +10631,7 @@
       <c r="L41" s="23"/>
       <c r="M41" s="6"/>
     </row>
-    <row r="42" spans="1:13" ht="15">
+    <row r="42" spans="1:13">
       <c r="A42" s="5">
         <v>29</v>
       </c>
@@ -10622,7 +10660,7 @@
       </c>
       <c r="M42" s="6"/>
     </row>
-    <row r="43" spans="1:13" ht="15">
+    <row r="43" spans="1:13">
       <c r="A43" s="5">
         <v>30</v>
       </c>
@@ -10651,7 +10689,7 @@
       <c r="L43" s="23"/>
       <c r="M43" s="6"/>
     </row>
-    <row r="44" spans="1:13" ht="15">
+    <row r="44" spans="1:13">
       <c r="A44" s="5">
         <v>31</v>
       </c>
@@ -10680,7 +10718,7 @@
       </c>
       <c r="M44" s="6"/>
     </row>
-    <row r="45" spans="1:13" ht="15">
+    <row r="45" spans="1:13">
       <c r="A45" s="5">
         <v>32</v>
       </c>
@@ -10709,7 +10747,7 @@
       <c r="L45" s="23"/>
       <c r="M45" s="6"/>
     </row>
-    <row r="46" spans="1:13" ht="15">
+    <row r="46" spans="1:13">
       <c r="A46" s="5">
         <v>33</v>
       </c>
@@ -10738,7 +10776,7 @@
       <c r="L46" s="23"/>
       <c r="M46" s="6"/>
     </row>
-    <row r="47" spans="1:13" ht="15">
+    <row r="47" spans="1:13">
       <c r="A47" s="5">
         <v>34</v>
       </c>
@@ -10767,7 +10805,7 @@
       <c r="L47" s="23"/>
       <c r="M47" s="6"/>
     </row>
-    <row r="48" spans="1:13" ht="15">
+    <row r="48" spans="1:13">
       <c r="A48" s="5">
         <v>35</v>
       </c>
@@ -10796,7 +10834,7 @@
       <c r="L48" s="23"/>
       <c r="M48" s="6"/>
     </row>
-    <row r="49" spans="1:13" ht="15">
+    <row r="49" spans="1:13">
       <c r="A49" s="5">
         <v>36</v>
       </c>
@@ -10826,7 +10864,7 @@
       </c>
       <c r="M49" s="6"/>
     </row>
-    <row r="50" spans="1:13" ht="15">
+    <row r="50" spans="1:13">
       <c r="A50" s="5">
         <v>37</v>
       </c>
@@ -10857,7 +10895,7 @@
       </c>
       <c r="M50" s="6"/>
     </row>
-    <row r="51" spans="1:13" ht="15">
+    <row r="51" spans="1:13">
       <c r="A51" s="5">
         <v>38</v>
       </c>
@@ -10888,7 +10926,7 @@
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
     </row>
-    <row r="52" spans="1:13" ht="15">
+    <row r="52" spans="1:13">
       <c r="A52" s="5">
         <v>39</v>
       </c>
@@ -10919,7 +10957,7 @@
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
     </row>
-    <row r="53" spans="1:13" ht="15">
+    <row r="53" spans="1:13">
       <c r="A53" s="5"/>
       <c r="B53" s="6" t="s">
         <v>47</v>
@@ -10928,7 +10966,7 @@
         <v>59</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E53" s="5">
         <v>2</v>
@@ -10941,12 +10979,12 @@
       <c r="I53" s="6"/>
       <c r="J53" s="24"/>
       <c r="K53" s="24" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
     </row>
-    <row r="54" spans="1:13" ht="15">
+    <row r="54" spans="1:13">
       <c r="A54" s="5">
         <v>40</v>
       </c>
@@ -10975,7 +11013,7 @@
       </c>
       <c r="M54" s="6"/>
     </row>
-    <row r="55" spans="1:13" ht="15">
+    <row r="55" spans="1:13">
       <c r="A55" s="5">
         <v>41</v>
       </c>
@@ -11004,7 +11042,7 @@
       </c>
       <c r="M55" s="6"/>
     </row>
-    <row r="56" spans="1:13" ht="15">
+    <row r="56" spans="1:13">
       <c r="A56" s="5">
         <v>42</v>
       </c>
@@ -11033,7 +11071,7 @@
       <c r="L56" s="45"/>
       <c r="M56" s="45"/>
     </row>
-    <row r="57" spans="1:13" ht="15">
+    <row r="57" spans="1:13">
       <c r="A57" s="5">
         <v>43</v>
       </c>
@@ -11064,7 +11102,7 @@
       <c r="L57" s="46"/>
       <c r="M57" s="45"/>
     </row>
-    <row r="58" spans="1:13" ht="15">
+    <row r="58" spans="1:13">
       <c r="A58" s="5">
         <v>44</v>
       </c>
@@ -11095,7 +11133,7 @@
       <c r="L58" s="46"/>
       <c r="M58" s="45"/>
     </row>
-    <row r="59" spans="1:13" ht="15">
+    <row r="59" spans="1:13">
       <c r="A59" s="5">
         <v>45</v>
       </c>
@@ -11126,7 +11164,7 @@
       <c r="L59" s="46"/>
       <c r="M59" s="45"/>
     </row>
-    <row r="60" spans="1:13" ht="15">
+    <row r="60" spans="1:13">
       <c r="A60" s="5">
         <v>46</v>
       </c>
@@ -11157,7 +11195,7 @@
       <c r="L60" s="46"/>
       <c r="M60" s="45"/>
     </row>
-    <row r="61" spans="1:13" ht="15">
+    <row r="61" spans="1:13">
       <c r="A61" s="5">
         <v>47</v>
       </c>
@@ -11188,7 +11226,7 @@
       <c r="L61" s="46"/>
       <c r="M61" s="45"/>
     </row>
-    <row r="62" spans="1:13" ht="15">
+    <row r="62" spans="1:13">
       <c r="A62" s="5">
         <v>48</v>
       </c>
@@ -11221,7 +11259,7 @@
       </c>
       <c r="M62" s="45"/>
     </row>
-    <row r="63" spans="1:13" ht="15">
+    <row r="63" spans="1:13">
       <c r="A63" s="5">
         <v>49</v>
       </c>
@@ -11254,7 +11292,7 @@
       </c>
       <c r="M63" s="45"/>
     </row>
-    <row r="64" spans="1:13" ht="15">
+    <row r="64" spans="1:13">
       <c r="A64" s="5">
         <v>50</v>
       </c>
@@ -11287,7 +11325,7 @@
       </c>
       <c r="M64" s="45"/>
     </row>
-    <row r="65" spans="1:13" ht="15">
+    <row r="65" spans="1:13">
       <c r="A65" s="5">
         <v>51</v>
       </c>
@@ -11320,7 +11358,7 @@
       </c>
       <c r="M65" s="45"/>
     </row>
-    <row r="66" spans="1:13" ht="15">
+    <row r="66" spans="1:13">
       <c r="A66" s="5">
         <v>52</v>
       </c>
@@ -11353,7 +11391,7 @@
       </c>
       <c r="M66" s="45"/>
     </row>
-    <row r="67" spans="1:13" ht="15">
+    <row r="67" spans="1:13">
       <c r="A67" s="5">
         <v>53</v>
       </c>
@@ -11386,7 +11424,7 @@
       </c>
       <c r="M67" s="45"/>
     </row>
-    <row r="68" spans="1:13" ht="15">
+    <row r="68" spans="1:13">
       <c r="A68" s="5">
         <v>54</v>
       </c>
@@ -11416,7 +11454,7 @@
       <c r="L68" s="122"/>
       <c r="M68" s="45"/>
     </row>
-    <row r="69" spans="1:13" ht="15">
+    <row r="69" spans="1:13">
       <c r="A69" s="5">
         <v>55</v>
       </c>
@@ -11439,17 +11477,17 @@
       <c r="H69" s="45"/>
       <c r="I69" s="46"/>
       <c r="J69" s="45" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K69" s="122" t="s">
         <v>428</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M69" s="45"/>
     </row>
-    <row r="70" spans="1:13" ht="15">
+    <row r="70" spans="1:13">
       <c r="A70" s="5">
         <v>56</v>
       </c>
@@ -11476,11 +11514,11 @@
         <v>443</v>
       </c>
       <c r="L70" s="45" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M70" s="45"/>
     </row>
-    <row r="71" spans="1:13" ht="15">
+    <row r="71" spans="1:13">
       <c r="A71" s="5">
         <v>57</v>
       </c>
@@ -11508,7 +11546,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="6"/>
     </row>
-    <row r="72" spans="1:13" ht="15">
+    <row r="72" spans="1:13">
       <c r="A72" s="5">
         <v>58</v>
       </c>
@@ -11536,7 +11574,7 @@
       <c r="L72" s="22"/>
       <c r="M72" s="6"/>
     </row>
-    <row r="73" spans="1:13" ht="15">
+    <row r="73" spans="1:13">
       <c r="A73" s="5">
         <v>59</v>
       </c>
@@ -11565,7 +11603,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="6"/>
     </row>
-    <row r="74" spans="1:13" ht="15">
+    <row r="74" spans="1:13">
       <c r="A74" s="5">
         <v>60</v>
       </c>
@@ -11594,7 +11632,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="6"/>
     </row>
-    <row r="75" spans="1:13" ht="15">
+    <row r="75" spans="1:13">
       <c r="A75" s="5">
         <v>61</v>
       </c>
@@ -11623,7 +11661,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="6"/>
     </row>
-    <row r="76" spans="1:13" ht="15">
+    <row r="76" spans="1:13">
       <c r="A76" s="5">
         <v>62</v>
       </c>
@@ -11652,7 +11690,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="6"/>
     </row>
-    <row r="77" spans="1:13" ht="15">
+    <row r="77" spans="1:13">
       <c r="A77" s="5">
         <v>63</v>
       </c>
@@ -11681,7 +11719,7 @@
       <c r="L77" s="22"/>
       <c r="M77" s="6"/>
     </row>
-    <row r="78" spans="1:13" ht="15">
+    <row r="78" spans="1:13">
       <c r="A78" s="5">
         <v>64</v>
       </c>
@@ -11710,7 +11748,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="6"/>
     </row>
-    <row r="79" spans="1:13" ht="15">
+    <row r="79" spans="1:13">
       <c r="A79" s="5">
         <v>65</v>
       </c>
@@ -11739,7 +11777,7 @@
       <c r="L79" s="22"/>
       <c r="M79" s="6"/>
     </row>
-    <row r="80" spans="1:13" ht="15">
+    <row r="80" spans="1:13">
       <c r="A80" s="5">
         <v>66</v>
       </c>
@@ -11768,7 +11806,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="6"/>
     </row>
-    <row r="81" spans="1:13" ht="15">
+    <row r="81" spans="1:13">
       <c r="A81" s="5">
         <v>67</v>
       </c>
@@ -11796,7 +11834,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="6"/>
     </row>
-    <row r="82" spans="1:13" ht="15">
+    <row r="82" spans="1:13">
       <c r="A82" s="5">
         <v>68</v>
       </c>
@@ -11825,7 +11863,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="6"/>
     </row>
-    <row r="83" spans="1:13" ht="15">
+    <row r="83" spans="1:13">
       <c r="A83" s="5">
         <v>69</v>
       </c>
@@ -11854,7 +11892,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="6"/>
     </row>
-    <row r="84" spans="1:13" ht="15">
+    <row r="84" spans="1:13">
       <c r="A84" s="5">
         <v>70</v>
       </c>
@@ -11883,7 +11921,7 @@
       </c>
       <c r="M84" s="6"/>
     </row>
-    <row r="85" spans="1:13" ht="15">
+    <row r="85" spans="1:13">
       <c r="A85" s="5">
         <v>71</v>
       </c>
@@ -11912,7 +11950,7 @@
       <c r="L85" s="23"/>
       <c r="M85" s="6"/>
     </row>
-    <row r="86" spans="1:13" ht="15">
+    <row r="86" spans="1:13">
       <c r="A86" s="5">
         <v>72</v>
       </c>
@@ -11941,7 +11979,7 @@
       </c>
       <c r="M86" s="6"/>
     </row>
-    <row r="87" spans="1:13" ht="15">
+    <row r="87" spans="1:13">
       <c r="A87" s="5">
         <v>73</v>
       </c>
@@ -11968,7 +12006,7 @@
       <c r="L87" s="23"/>
       <c r="M87" s="6"/>
     </row>
-    <row r="88" spans="1:13" ht="15">
+    <row r="88" spans="1:13">
       <c r="A88" s="5">
         <v>74</v>
       </c>
@@ -11995,7 +12033,7 @@
       <c r="L88" s="22"/>
       <c r="M88" s="6"/>
     </row>
-    <row r="89" spans="1:13" ht="15">
+    <row r="89" spans="1:13">
       <c r="A89" s="5">
         <v>75</v>
       </c>
@@ -12022,7 +12060,7 @@
       <c r="L89" s="45"/>
       <c r="M89" s="45"/>
     </row>
-    <row r="90" spans="1:13" ht="15">
+    <row r="90" spans="1:13">
       <c r="A90" s="5">
         <v>76</v>
       </c>
@@ -12049,7 +12087,7 @@
       <c r="L90" s="45"/>
       <c r="M90" s="45"/>
     </row>
-    <row r="91" spans="1:13" ht="15">
+    <row r="91" spans="1:13">
       <c r="A91" s="5">
         <v>77</v>
       </c>
@@ -12076,7 +12114,7 @@
       <c r="L91" s="45"/>
       <c r="M91" s="45"/>
     </row>
-    <row r="92" spans="1:13" ht="15">
+    <row r="92" spans="1:13">
       <c r="A92" s="5">
         <v>78</v>
       </c>
@@ -12097,7 +12135,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="6"/>
     </row>
-    <row r="93" spans="1:13" ht="15">
+    <row r="93" spans="1:13">
       <c r="A93" s="5">
         <v>79</v>
       </c>
@@ -12120,7 +12158,7 @@
       <c r="L93" s="22"/>
       <c r="M93" s="6"/>
     </row>
-    <row r="94" spans="1:13" ht="15">
+    <row r="94" spans="1:13">
       <c r="A94" s="5">
         <v>80</v>
       </c>
@@ -12143,7 +12181,7 @@
       <c r="L94" s="22"/>
       <c r="M94" s="6"/>
     </row>
-    <row r="95" spans="1:13" ht="15">
+    <row r="95" spans="1:13">
       <c r="A95" s="5">
         <v>81</v>
       </c>
@@ -12166,7 +12204,7 @@
       <c r="L95" s="22"/>
       <c r="M95" s="6"/>
     </row>
-    <row r="96" spans="1:13" ht="15">
+    <row r="96" spans="1:13">
       <c r="A96" s="5">
         <v>82</v>
       </c>
@@ -12189,7 +12227,7 @@
       <c r="L96" s="23"/>
       <c r="M96" s="24"/>
     </row>
-    <row r="97" spans="1:13" ht="15">
+    <row r="97" spans="1:13">
       <c r="A97" s="5">
         <v>83</v>
       </c>
@@ -12212,7 +12250,7 @@
       <c r="L97" s="22"/>
       <c r="M97" s="6"/>
     </row>
-    <row r="98" spans="1:13" ht="15">
+    <row r="98" spans="1:13">
       <c r="A98" s="5">
         <v>84</v>
       </c>
@@ -12235,7 +12273,7 @@
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
     </row>
-    <row r="99" spans="1:13" ht="15">
+    <row r="99" spans="1:13">
       <c r="A99" s="5">
         <v>85</v>
       </c>
@@ -12281,7 +12319,7 @@
       <c r="L100" s="23"/>
       <c r="M100" s="6"/>
     </row>
-    <row r="101" spans="1:13" ht="15">
+    <row r="101" spans="1:13">
       <c r="A101" s="5">
         <v>87</v>
       </c>
@@ -12306,7 +12344,7 @@
       <c r="L101" s="23"/>
       <c r="M101" s="6"/>
     </row>
-    <row r="102" spans="1:13" ht="15">
+    <row r="102" spans="1:13">
       <c r="A102" s="5">
         <v>88</v>
       </c>
@@ -12325,7 +12363,7 @@
       <c r="L102" s="22"/>
       <c r="M102" s="6"/>
     </row>
-    <row r="103" spans="1:13" ht="15">
+    <row r="103" spans="1:13">
       <c r="A103" s="5"/>
       <c r="B103" s="6" t="s">
         <v>79</v>
@@ -12341,7 +12379,7 @@
       <c r="L103" s="22"/>
       <c r="M103" s="6"/>
     </row>
-    <row r="104" spans="1:13" s="43" customFormat="1" ht="15">
+    <row r="104" spans="1:13" s="43" customFormat="1">
       <c r="A104" s="5"/>
       <c r="B104" s="29" t="s">
         <v>7</v>
@@ -12358,7 +12396,7 @@
       <c r="L104" s="42"/>
       <c r="M104" s="42"/>
     </row>
-    <row r="105" spans="1:13" ht="15">
+    <row r="105" spans="1:13">
       <c r="A105" s="5"/>
       <c r="B105" s="6" t="s">
         <v>6</v>
@@ -12375,7 +12413,7 @@
       <c r="L105" s="22"/>
       <c r="M105" s="6"/>
     </row>
-    <row r="106" spans="1:13" ht="15">
+    <row r="106" spans="1:13">
       <c r="A106" s="5"/>
       <c r="B106" s="6" t="s">
         <v>61</v>
@@ -12392,7 +12430,7 @@
       <c r="L106" s="22"/>
       <c r="M106" s="6"/>
     </row>
-    <row r="107" spans="1:13" s="44" customFormat="1" ht="15">
+    <row r="107" spans="1:13" s="44" customFormat="1">
       <c r="A107" s="5"/>
       <c r="B107" s="29" t="s">
         <v>7</v>
@@ -12409,7 +12447,7 @@
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
     </row>
-    <row r="108" spans="1:13" ht="15">
+    <row r="108" spans="1:13">
       <c r="A108" s="5"/>
       <c r="B108" s="29" t="s">
         <v>7</v>
@@ -12426,7 +12464,7 @@
       <c r="L108" s="22"/>
       <c r="M108" s="6"/>
     </row>
-    <row r="109" spans="1:13" ht="15">
+    <row r="109" spans="1:13">
       <c r="A109" s="5"/>
       <c r="B109" s="29" t="s">
         <v>7</v>
@@ -12443,7 +12481,7 @@
       <c r="L109" s="22"/>
       <c r="M109" s="6"/>
     </row>
-    <row r="110" spans="1:13" ht="15">
+    <row r="110" spans="1:13">
       <c r="A110" s="5"/>
       <c r="B110" s="29" t="s">
         <v>7</v>
@@ -12460,7 +12498,7 @@
       <c r="L110" s="22"/>
       <c r="M110" s="6"/>
     </row>
-    <row r="111" spans="1:13" ht="15">
+    <row r="111" spans="1:13">
       <c r="A111" s="5"/>
       <c r="B111" s="29" t="s">
         <v>7</v>
@@ -12477,7 +12515,7 @@
       <c r="L111" s="22"/>
       <c r="M111" s="6"/>
     </row>
-    <row r="112" spans="1:13" ht="15">
+    <row r="112" spans="1:13">
       <c r="A112" s="5"/>
       <c r="B112" s="29" t="s">
         <v>7</v>
@@ -12494,7 +12532,7 @@
       <c r="L112" s="22"/>
       <c r="M112" s="6"/>
     </row>
-    <row r="113" spans="1:13" ht="15">
+    <row r="113" spans="1:13">
       <c r="A113" s="5"/>
       <c r="B113" s="29" t="s">
         <v>7</v>
@@ -12511,7 +12549,7 @@
       <c r="L113" s="22"/>
       <c r="M113" s="6"/>
     </row>
-    <row r="114" spans="1:13" s="43" customFormat="1" ht="15">
+    <row r="114" spans="1:13" s="43" customFormat="1">
       <c r="A114" s="5"/>
       <c r="B114" s="29" t="s">
         <v>7</v>
@@ -12528,7 +12566,7 @@
       <c r="L114" s="42"/>
       <c r="M114" s="42"/>
     </row>
-    <row r="115" spans="1:13" s="43" customFormat="1" ht="15">
+    <row r="115" spans="1:13" s="43" customFormat="1">
       <c r="A115" s="5"/>
       <c r="B115" s="42" t="s">
         <v>170</v>
@@ -12545,7 +12583,7 @@
       <c r="L115" s="42"/>
       <c r="M115" s="42"/>
     </row>
-    <row r="116" spans="1:13" s="43" customFormat="1" ht="15">
+    <row r="116" spans="1:13" s="43" customFormat="1">
       <c r="A116" s="5"/>
       <c r="B116" s="42" t="s">
         <v>60</v>
@@ -12562,7 +12600,7 @@
       <c r="L116" s="42"/>
       <c r="M116" s="42"/>
     </row>
-    <row r="117" spans="1:13" s="43" customFormat="1" ht="15">
+    <row r="117" spans="1:13" s="43" customFormat="1">
       <c r="A117" s="5"/>
       <c r="B117" s="42" t="s">
         <v>60</v>
@@ -13344,7 +13382,7 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="2:2">
@@ -13863,7 +13901,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="2:18" s="47" customFormat="1" ht="51">
+    <row r="31" spans="2:18" s="47" customFormat="1" ht="48">
       <c r="B31" s="85" t="s">
         <v>347</v>
       </c>
@@ -13984,7 +14022,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="51">
+    <row r="38" spans="1:18" ht="48">
       <c r="A38" s="141"/>
       <c r="B38" s="91" t="s">
         <v>321</v>
@@ -14034,7 +14072,7 @@
       <c r="M40" s="84"/>
       <c r="N40" s="88"/>
     </row>
-    <row r="41" spans="1:18" ht="34">
+    <row r="41" spans="1:18" ht="32">
       <c r="A41" s="141"/>
       <c r="B41" s="146" t="s">
         <v>256</v>
@@ -14050,7 +14088,7 @@
         <v>1</v>
       </c>
       <c r="J41" s="85" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="K41" s="88">
         <v>1</v>
@@ -14525,7 +14563,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="34">
+    <row r="73" spans="1:17" ht="32">
       <c r="B73" s="72" t="s">
         <v>293</v>
       </c>
@@ -14545,7 +14583,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="34">
+    <row r="74" spans="1:17" ht="32">
       <c r="A74" s="141"/>
       <c r="B74" s="151" t="s">
         <v>289</v>
@@ -14560,7 +14598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="1:17" ht="34">
+    <row r="75" spans="1:17" ht="32">
       <c r="A75" s="141"/>
       <c r="B75" s="151" t="s">
         <v>244</v>
@@ -14595,7 +14633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="34">
+    <row r="77" spans="1:17" ht="32">
       <c r="B77" s="151" t="s">
         <v>356</v>
       </c>
@@ -14623,7 +14661,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="34">
+    <row r="79" spans="1:17" ht="32">
       <c r="A79" s="141"/>
       <c r="B79" s="151" t="s">
         <v>245</v>
@@ -14652,7 +14690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="34">
+    <row r="81" spans="1:17" ht="32">
       <c r="A81" s="141"/>
       <c r="B81" s="151" t="s">
         <v>246</v>
@@ -14737,7 +14775,7 @@
   <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
@@ -14996,7 +15034,7 @@
         <v>391</v>
       </c>
       <c r="F24" s="137" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G24" s="67"/>
       <c r="H24" s="94" t="s">
@@ -15113,11 +15151,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -15136,7 +15174,7 @@
     <col min="12" max="16384" width="8.7109375" style="134"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="125" customFormat="1">
+    <row r="2" spans="1:11" s="125" customFormat="1" ht="16">
       <c r="B2" s="125" t="s">
         <v>206</v>
       </c>
@@ -15168,7 +15206,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="125" customFormat="1">
+    <row r="3" spans="1:11" s="125" customFormat="1" ht="16">
       <c r="A3" s="128" t="s">
         <v>126</v>
       </c>
@@ -15182,30 +15220,30 @@
       <c r="I3" s="130"/>
       <c r="K3" s="129"/>
     </row>
-    <row r="4" spans="1:11" s="125" customFormat="1" ht="34">
+    <row r="4" spans="1:11" s="125" customFormat="1" ht="32">
       <c r="A4" s="128"/>
       <c r="B4" s="130" t="s">
         <v>464</v>
       </c>
       <c r="C4" s="130"/>
       <c r="D4" s="136" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E4" s="130"/>
       <c r="F4" s="130" t="s">
         <v>468</v>
       </c>
       <c r="G4" s="130"/>
-      <c r="H4" s="136" t="s">
-        <v>503</v>
+      <c r="H4" s="155" t="s">
+        <v>561</v>
       </c>
       <c r="I4" s="130"/>
       <c r="J4" s="136" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K4" s="129"/>
     </row>
-    <row r="5" spans="1:11" s="125" customFormat="1" ht="34">
+    <row r="5" spans="1:11" s="125" customFormat="1" ht="32">
       <c r="A5" s="128"/>
       <c r="B5" s="130" t="s">
         <v>466</v>
@@ -15223,12 +15261,12 @@
         <v>479</v>
       </c>
       <c r="I5" s="130"/>
-      <c r="J5" s="139" t="s">
-        <v>514</v>
+      <c r="J5" s="156" t="s">
+        <v>562</v>
       </c>
       <c r="K5" s="131"/>
     </row>
-    <row r="6" spans="1:11" s="125" customFormat="1" ht="34">
+    <row r="6" spans="1:11" s="125" customFormat="1" ht="32">
       <c r="A6" s="128"/>
       <c r="B6" s="130" t="s">
         <v>469</v>
@@ -15243,7 +15281,7 @@
       </c>
       <c r="G6" s="130"/>
       <c r="H6" s="136" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I6" s="130"/>
       <c r="J6" s="130" t="s">
@@ -15251,7 +15289,7 @@
       </c>
       <c r="K6" s="131"/>
     </row>
-    <row r="7" spans="1:11" s="125" customFormat="1">
+    <row r="7" spans="1:11" s="125" customFormat="1" ht="16">
       <c r="B7" s="130"/>
       <c r="C7" s="130"/>
       <c r="D7" s="136" t="s">
@@ -15263,17 +15301,17 @@
       </c>
       <c r="G7" s="130"/>
       <c r="H7" s="139" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I7" s="130"/>
       <c r="K7" s="129"/>
     </row>
-    <row r="8" spans="1:11" s="125" customFormat="1">
+    <row r="8" spans="1:11" s="125" customFormat="1" ht="16">
       <c r="B8" s="130"/>
       <c r="C8" s="130"/>
       <c r="E8" s="130"/>
       <c r="F8" s="139" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G8" s="130"/>
       <c r="H8" s="130" t="s">
@@ -15283,7 +15321,7 @@
       <c r="J8" s="130"/>
       <c r="K8" s="129"/>
     </row>
-    <row r="9" spans="1:11" s="125" customFormat="1">
+    <row r="9" spans="1:11" s="125" customFormat="1" ht="16">
       <c r="B9" s="130"/>
       <c r="C9" s="130"/>
       <c r="E9" s="130"/>
@@ -15296,7 +15334,7 @@
       <c r="J9" s="130"/>
       <c r="K9" s="129"/>
     </row>
-    <row r="10" spans="1:11" s="129" customFormat="1">
+    <row r="10" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A10" s="128"/>
       <c r="B10" s="130"/>
       <c r="C10" s="130"/>
@@ -15306,7 +15344,7 @@
       </c>
       <c r="I10" s="130"/>
     </row>
-    <row r="11" spans="1:11" s="129" customFormat="1">
+    <row r="11" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A11" s="128"/>
       <c r="B11" s="130"/>
       <c r="C11" s="130"/>
@@ -15314,7 +15352,7 @@
       <c r="I11" s="130"/>
       <c r="J11" s="130"/>
     </row>
-    <row r="12" spans="1:11" s="129" customFormat="1">
+    <row r="12" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A12" s="128"/>
       <c r="B12" s="130"/>
       <c r="C12" s="130"/>
@@ -15328,7 +15366,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="129" customFormat="1">
+    <row r="13" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A13" s="128"/>
       <c r="B13" s="130"/>
       <c r="C13" s="130"/>
@@ -15342,14 +15380,14 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="129" customFormat="1">
+    <row r="14" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A14" s="128"/>
       <c r="B14" s="130"/>
       <c r="C14" s="130"/>
       <c r="D14" s="130"/>
       <c r="E14" s="130"/>
       <c r="F14" s="136" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G14" s="130"/>
       <c r="H14" s="130" t="s">
@@ -15360,7 +15398,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="129" customFormat="1">
+    <row r="15" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A15" s="128"/>
       <c r="B15" s="130"/>
       <c r="C15" s="130"/>
@@ -15372,7 +15410,7 @@
       <c r="I15" s="130"/>
       <c r="J15" s="130"/>
     </row>
-    <row r="16" spans="1:11" s="129" customFormat="1">
+    <row r="16" spans="1:11" s="129" customFormat="1" ht="16">
       <c r="A16" s="128"/>
       <c r="B16" s="130"/>
       <c r="C16" s="130"/>
@@ -15384,7 +15422,7 @@
       <c r="I16" s="130"/>
       <c r="J16" s="130"/>
     </row>
-    <row r="17" spans="1:10" s="129" customFormat="1">
+    <row r="17" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A17" s="128" t="s">
         <v>127</v>
       </c>
@@ -15396,7 +15434,7 @@
       <c r="I17" s="130"/>
       <c r="J17" s="130"/>
     </row>
-    <row r="18" spans="1:10" s="129" customFormat="1">
+    <row r="18" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A18" s="128"/>
       <c r="B18" s="130" t="s">
         <v>463</v>
@@ -15407,18 +15445,18 @@
       </c>
       <c r="E18" s="130"/>
       <c r="F18" s="136" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G18" s="130"/>
       <c r="H18" s="136" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I18" s="130"/>
       <c r="J18" s="136" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="129" customFormat="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A19" s="128"/>
       <c r="B19" s="130" t="s">
         <v>487</v>
@@ -15437,7 +15475,7 @@
       </c>
       <c r="I19" s="130"/>
       <c r="J19" s="138" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="129" customFormat="1" ht="32">
@@ -15451,18 +15489,18 @@
       </c>
       <c r="E20" s="130"/>
       <c r="F20" s="155" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G20" s="130"/>
-      <c r="H20" s="136" t="s">
-        <v>504</v>
+      <c r="H20" s="130" t="s">
+        <v>486</v>
       </c>
       <c r="I20" s="130"/>
       <c r="J20" s="130" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="129" customFormat="1">
+    <row r="21" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A21" s="128"/>
       <c r="B21" s="72" t="s">
         <v>492</v>
@@ -15472,19 +15510,19 @@
         <v>481</v>
       </c>
       <c r="E21" s="130"/>
-      <c r="F21" s="130" t="s">
-        <v>486</v>
+      <c r="F21" s="136" t="s">
+        <v>503</v>
       </c>
       <c r="G21" s="130"/>
       <c r="H21" s="138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I21" s="130"/>
       <c r="J21" s="130" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="129" customFormat="1">
+    <row r="22" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A22" s="128"/>
       <c r="B22" s="130"/>
       <c r="C22" s="130"/>
@@ -15499,7 +15537,7 @@
       <c r="I22" s="130"/>
       <c r="J22" s="130"/>
     </row>
-    <row r="23" spans="1:10" s="129" customFormat="1">
+    <row r="23" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A23" s="128"/>
       <c r="B23" s="136" t="s">
         <v>494</v>
@@ -15516,10 +15554,10 @@
       </c>
       <c r="I23" s="130"/>
       <c r="J23" s="136" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="129" customFormat="1">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A24" s="128"/>
       <c r="B24" s="130"/>
       <c r="C24" s="130"/>
@@ -15530,7 +15568,7 @@
       <c r="I24" s="130"/>
       <c r="J24" s="130"/>
     </row>
-    <row r="25" spans="1:10" s="129" customFormat="1">
+    <row r="25" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A25" s="128"/>
       <c r="B25" s="130"/>
       <c r="C25" s="130"/>
@@ -15541,7 +15579,7 @@
       <c r="I25" s="130"/>
       <c r="J25" s="130"/>
     </row>
-    <row r="26" spans="1:10" s="129" customFormat="1">
+    <row r="26" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A26" s="128"/>
       <c r="B26" s="130"/>
       <c r="C26" s="130"/>
@@ -15554,7 +15592,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="129" customFormat="1">
+    <row r="27" spans="1:10" s="129" customFormat="1" ht="16">
       <c r="A27" s="128"/>
       <c r="B27" s="130"/>
       <c r="C27" s="130"/>
@@ -15895,7 +15933,7 @@
     <col min="14" max="16384" width="8.7109375" style="99"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18" thickBot="1"/>
+    <row r="2" spans="1:13" ht="17" thickBot="1"/>
     <row r="3" spans="1:13" s="66" customFormat="1">
       <c r="A3" s="49"/>
       <c r="B3" s="50"/>
@@ -15921,7 +15959,7 @@
       <c r="L3" s="51"/>
       <c r="M3" s="52"/>
     </row>
-    <row r="4" spans="1:13" ht="18" thickBot="1">
+    <row r="4" spans="1:13" ht="17" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>106</v>
       </c>
@@ -16060,7 +16098,7 @@
         <v>420</v>
       </c>
       <c r="B10" s="154" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="103"/>
       <c r="D10" s="108"/>
@@ -16085,7 +16123,7 @@
         <v>421</v>
       </c>
       <c r="B11" s="154" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C11" s="103"/>
       <c r="D11" s="108"/>
@@ -16110,7 +16148,7 @@
         <v>422</v>
       </c>
       <c r="B12" s="154" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C12" s="103"/>
       <c r="D12" s="108"/>
@@ -16135,7 +16173,7 @@
         <v>423</v>
       </c>
       <c r="B13" s="154" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C13" s="103"/>
       <c r="D13" s="108"/>
@@ -16160,7 +16198,7 @@
         <v>424</v>
       </c>
       <c r="B14" s="154" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C14" s="103"/>
       <c r="D14" s="108"/>
@@ -16185,7 +16223,7 @@
         <v>425</v>
       </c>
       <c r="B15" s="154" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C15" s="103"/>
       <c r="D15" s="108"/>
@@ -16210,7 +16248,7 @@
         <v>427</v>
       </c>
       <c r="B16" s="154" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C16" s="103"/>
       <c r="D16" s="108"/>
@@ -16235,7 +16273,7 @@
         <v>426</v>
       </c>
       <c r="B17" s="154" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C17" s="103"/>
       <c r="D17" s="108"/>
@@ -16255,7 +16293,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="153" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B18" s="154"/>
       <c r="C18" s="103"/>
@@ -16272,7 +16310,7 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="153" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B19" s="154"/>
       <c r="C19" s="103"/>
@@ -16341,7 +16379,7 @@
       <c r="L22" s="103"/>
       <c r="M22" s="104"/>
     </row>
-    <row r="23" spans="1:13" ht="18" thickBot="1">
+    <row r="23" spans="1:13" ht="17" thickBot="1">
       <c r="A23" s="109"/>
       <c r="B23" s="110"/>
       <c r="C23" s="111"/>
@@ -16440,7 +16478,7 @@
         <v>193</v>
       </c>
       <c r="K30" s="141" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -16815,7 +16853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="205" zoomScaleNormal="205" zoomScalePageLayoutView="205" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -16827,29 +16865,29 @@
     <col min="4" max="16384" width="11.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21">
+    <row r="2" spans="2:4" ht="20">
       <c r="B2" s="33" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="C4" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="C6" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -16862,12 +16900,12 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="D13" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -16875,12 +16913,12 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="D15" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="2:4">
@@ -16888,12 +16926,12 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="D17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -16901,12 +16939,12 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -16914,12 +16952,12 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="D21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -16927,7 +16965,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -16935,12 +16973,12 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="D24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -16948,7 +16986,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="2:4">
@@ -16956,7 +16994,7 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -16964,7 +17002,7 @@
         <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -16972,7 +17010,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="29" spans="2:4">
@@ -16980,7 +17018,7 @@
         <v>12</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -16989,7 +17027,7 @@
     <row r="31" spans="2:4">
       <c r="D31"/>
     </row>
-    <row r="32" spans="2:4" ht="21">
+    <row r="32" spans="2:4" ht="20">
       <c r="B32" s="33" t="s">
         <v>131</v>
       </c>
@@ -17157,7 +17195,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="21">
+    <row r="67" spans="2:9" ht="20">
       <c r="B67" s="33" t="s">
         <v>145</v>
       </c>
@@ -17322,7 +17360,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="100" spans="2:8" ht="21">
+    <row r="100" spans="2:8" ht="20">
       <c r="B100" s="33" t="s">
         <v>52</v>
       </c>

--- a/项目管理/进度计划/Demo-里程碑5/Demo-里程碑5计划.xlsx
+++ b/项目管理/进度计划/Demo-里程碑5/Demo-里程碑5计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="460" windowWidth="33500" windowHeight="20180" tabRatio="349" activeTab="2"/>
+    <workbookView xWindow="1700" yWindow="460" windowWidth="36040" windowHeight="19800" tabRatio="349" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="里程碑5" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="597">
   <si>
     <t>分类</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -4700,22 +4700,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>que'ren</t>
-    </rPh>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>策划文档，程序开发</t>
-    <rPh sb="0" eb="1">
-      <t>ce'hua</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wen'dang</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>cheng'xu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>kai'fa</t>
     </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -6256,12 +6240,323 @@
     </rPh>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>延期：程序开发（含UI）</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档设计</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：文档设计，封文档</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：换UI，QA测试</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi'wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>延期：程序开发，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>QA测试</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu'kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：QA测试</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ce'shi</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前：程序开发</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划文档，提前：封文档</t>
+    <rPh sb="5" eb="6">
+      <t>ti'qian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>feng'wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：策划文档，封文档</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：需求文档，封文档</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xu'qiu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>wen'dang</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：美术资源</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>mei'shu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zi'yuan</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>延期：内容设计</t>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nei'rong</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'ji</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <rPh sb="0" eb="1">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>wan'cheng</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>策划文档</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，程序开发</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>ce'hua</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前：文档设计</t>
+    <rPh sb="0" eb="1">
+      <t>ti'qian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文档设计</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，提前：封文档</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ti'qian</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>延期：文档设计，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序开发</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>yan'qi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wen'dang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she'ji</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>cheng'xu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>kai'fa</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色原画</t>
+    <rPh sb="0" eb="1">
+      <t>jue'se</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>角色原画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，动作</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>dong'zuo</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色原画</t>
+    <rPh sb="0" eb="1">
+      <t>jue'es</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>yuan'hua</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>道成寺钟</t>
+    <rPh sb="0" eb="1">
+      <t>dao'cheng'si'zhong</t>
+    </rPh>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6584,6 +6879,12 @@
       <name val="微软雅黑"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -6713,7 +7014,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="309">
+  <cellStyleXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -7031,8 +7332,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -7296,9 +7601,6 @@
     <xf numFmtId="58" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7434,9 +7736,23 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="309">
+  <cellStyles count="313">
     <cellStyle name="Normal 2" xfId="298"/>
     <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
@@ -7589,6 +7905,8 @@
     <cellStyle name="已访问的超链接" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="157"/>
     <cellStyle name="常规 2" xfId="1"/>
@@ -7746,8 +8064,10 @@
     <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="238">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -8199,6 +8519,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8224,6 +8565,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8250,7 +8598,35 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8290,62 +8666,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8365,13 +8685,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8398,21 +8711,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8452,6 +8751,55 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8485,13 +8833,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8539,27 +8880,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8593,13 +8913,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8640,13 +8953,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8734,6 +9040,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8828,6 +9148,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8854,13 +9188,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8894,6 +9221,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -8927,6 +9268,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -9026,24 +9381,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9069,6 +9407,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -9095,6 +9440,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -9121,7 +9473,24 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9258,27 +9627,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -9350,6 +9698,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -9383,13 +9745,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -9416,13 +9771,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -9443,6 +9791,154 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9796,11 +10292,11 @@
   <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="5" ySplit="11" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="11" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="F3" sqref="F3"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -9843,7 +10339,7 @@
         <v>136</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="11" t="s">
@@ -9876,7 +10372,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="11" t="s">
@@ -9892,7 +10388,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="11" t="s">
@@ -9909,7 +10405,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="11" t="s">
@@ -9925,7 +10421,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="F8" s="12"/>
       <c r="G8" s="11" t="s">
@@ -9943,7 +10439,7 @@
         <v>33</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="11" t="s">
@@ -9958,7 +10454,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="F10" s="12"/>
     </row>
@@ -10053,11 +10549,14 @@
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="28"/>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="28" t="s">
         <v>363</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="K14" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -10083,12 +10582,14 @@
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -10114,12 +10615,14 @@
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>574</v>
+      </c>
       <c r="K16" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -10145,17 +10648,17 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>227</v>
+      <c r="I17" s="28" t="s">
+        <v>575</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>228</v>
+        <v>576</v>
       </c>
       <c r="K17" s="93" t="s">
         <v>362</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M17" s="6"/>
     </row>
@@ -10180,11 +10683,11 @@
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="6"/>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="28" t="s">
         <v>367</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>440</v>
+        <v>577</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -10211,14 +10714,14 @@
       <c r="G19" s="22"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J19" s="22"/>
       <c r="K19" s="6" t="s">
         <v>366</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M19" s="6"/>
     </row>
@@ -10248,12 +10751,14 @@
       <c r="I20" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="158" t="s">
         <v>362</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="22" t="s">
+        <v>578</v>
+      </c>
       <c r="L20" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M20" s="6"/>
     </row>
@@ -10276,10 +10781,12 @@
       <c r="F21" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H21" s="36"/>
       <c r="I21" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -10336,13 +10843,15 @@
       <c r="H23" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="28" t="s">
         <v>362</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="L23" s="22"/>
+        <v>580</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>581</v>
+      </c>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -10356,20 +10865,24 @@
         <v>184</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E24" s="20">
         <v>1</v>
       </c>
-      <c r="F24" s="104" t="s">
+      <c r="F24" s="103" t="s">
         <v>361</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="22" t="s">
+      <c r="G24" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" s="28" t="s">
         <v>362</v>
       </c>
       <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>578</v>
+      </c>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="6"/>
@@ -10385,20 +10898,24 @@
         <v>184</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E25" s="20">
         <v>1</v>
       </c>
-      <c r="F25" s="105" t="s">
+      <c r="F25" s="104" t="s">
         <v>361</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="22" t="s">
+      <c r="G25" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H25" s="28" t="s">
         <v>362</v>
       </c>
       <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="22" t="s">
+        <v>578</v>
+      </c>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="6"/>
@@ -10431,7 +10948,7 @@
       </c>
       <c r="K26" s="22"/>
       <c r="L26" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M26" s="6"/>
     </row>
@@ -10446,16 +10963,20 @@
         <v>59</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22" t="s">
+      <c r="I27" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="J27" s="28" t="s">
         <v>362</v>
       </c>
       <c r="K27" s="22"/>
@@ -10481,12 +11002,14 @@
       <c r="F28" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H28" s="36"/>
       <c r="I28" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="J28" s="24" t="s">
+        <v>583</v>
+      </c>
+      <c r="J28" s="25" t="s">
         <v>228</v>
       </c>
       <c r="K28" s="22"/>
@@ -10512,14 +11035,14 @@
       <c r="F29" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="5"/>
       <c r="H29" s="36"/>
       <c r="I29" s="23"/>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="25" t="s">
         <v>78</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="6"/>
@@ -10546,11 +11069,11 @@
       <c r="G30" s="22"/>
       <c r="H30" s="36"/>
       <c r="I30" s="23"/>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="25" t="s">
         <v>78</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>228</v>
+        <v>585</v>
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="6"/>
@@ -10577,11 +11100,11 @@
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
       <c r="I31" s="23"/>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="25" t="s">
         <v>226</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
       <c r="L31" s="23"/>
       <c r="M31" s="6"/>
@@ -10608,11 +11131,11 @@
       <c r="G32" s="5"/>
       <c r="H32" s="23"/>
       <c r="I32" s="23"/>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="25" t="s">
         <v>78</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>228</v>
+        <v>584</v>
       </c>
       <c r="L32" s="23"/>
       <c r="M32" s="24"/>
@@ -10636,11 +11159,15 @@
       <c r="F33" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="46" t="s">
+      <c r="G33" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H33" s="159" t="s">
         <v>349</v>
       </c>
-      <c r="I33" s="46"/>
+      <c r="I33" s="46" t="s">
+        <v>586</v>
+      </c>
       <c r="K33" s="45"/>
       <c r="L33" s="45"/>
       <c r="M33" s="45"/>
@@ -10664,13 +11191,19 @@
       <c r="F34" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="46" t="s">
+      <c r="G34" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H34" s="159" t="s">
         <v>349</v>
       </c>
       <c r="I34" s="45"/>
-      <c r="J34" s="46"/>
-      <c r="K34" s="45"/>
+      <c r="J34" s="159" t="s">
+        <v>349</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>586</v>
+      </c>
       <c r="L34" s="45"/>
       <c r="M34" s="45"/>
     </row>
@@ -10693,13 +11226,16 @@
       <c r="F35" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="46" t="s">
+      <c r="G35" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I35" s="159" t="s">
         <v>349</v>
       </c>
-      <c r="I35" s="45"/>
       <c r="J35" s="46"/>
-      <c r="K35" s="45"/>
+      <c r="K35" s="46" t="s">
+        <v>586</v>
+      </c>
       <c r="L35" s="45"/>
       <c r="M35" s="45"/>
     </row>
@@ -10722,11 +11258,13 @@
       <c r="F36" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="46" t="s">
+      <c r="G36" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H36" s="159"/>
+      <c r="I36" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="I36" s="45"/>
       <c r="J36" s="45"/>
       <c r="K36" s="45"/>
       <c r="L36" s="45"/>
@@ -10751,13 +11289,17 @@
       <c r="F37" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G37" s="21"/>
+      <c r="G37" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H37" s="45"/>
       <c r="I37" s="45"/>
-      <c r="J37" s="46" t="s">
+      <c r="J37" s="159" t="s">
         <v>349</v>
       </c>
-      <c r="K37" s="45"/>
+      <c r="K37" s="46" t="s">
+        <v>586</v>
+      </c>
       <c r="L37" s="45"/>
       <c r="M37" s="45"/>
     </row>
@@ -10780,7 +11322,9 @@
       <c r="F38" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="G38" s="21"/>
+      <c r="G38" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H38" s="45"/>
       <c r="I38" s="45"/>
       <c r="J38" s="46" t="s">
@@ -10812,10 +11356,12 @@
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="K39" s="22"/>
+      <c r="K39" s="22" t="s">
+        <v>587</v>
+      </c>
       <c r="L39" s="23"/>
       <c r="M39" s="6"/>
     </row>
@@ -10841,10 +11387,12 @@
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="K40" s="22"/>
+      <c r="K40" s="22" t="s">
+        <v>587</v>
+      </c>
       <c r="L40" s="23"/>
       <c r="M40" s="6"/>
     </row>
@@ -10925,7 +11473,9 @@
       <c r="F43" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="22"/>
+      <c r="G43" s="22" t="s">
+        <v>588</v>
+      </c>
       <c r="H43" s="22"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23" t="s">
@@ -11073,9 +11623,11 @@
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
       <c r="I48" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="J48" s="23"/>
+        <v>589</v>
+      </c>
+      <c r="J48" s="23" t="s">
+        <v>578</v>
+      </c>
       <c r="K48" s="22"/>
       <c r="L48" s="23"/>
       <c r="M48" s="6"/>
@@ -11101,14 +11653,15 @@
       </c>
       <c r="G49" s="22"/>
       <c r="H49" s="6"/>
-      <c r="J49" s="6"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="23"/>
       <c r="K49" s="24" t="s">
-        <v>227</v>
+        <v>338</v>
       </c>
       <c r="L49" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="M49" s="6"/>
+      <c r="M49" s="160"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
@@ -11129,14 +11682,18 @@
       <c r="F50" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="G50" s="22"/>
+      <c r="G50" s="22" t="s">
+        <v>588</v>
+      </c>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
-      <c r="J50" s="24"/>
+      <c r="J50" s="24" t="s">
+        <v>590</v>
+      </c>
       <c r="K50" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="L50" s="24" t="s">
+        <v>591</v>
+      </c>
+      <c r="L50" s="25" t="s">
         <v>228</v>
       </c>
       <c r="M50" s="6"/>
@@ -11163,11 +11720,11 @@
       <c r="G51" s="5"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
-      <c r="J51" s="6" t="s">
+      <c r="J51" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="K51" s="6" t="s">
-        <v>362</v>
+      <c r="K51" s="24" t="s">
+        <v>592</v>
       </c>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -11212,7 +11769,7 @@
         <v>59</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E53" s="5">
         <v>2</v>
@@ -11224,8 +11781,8 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="24"/>
-      <c r="K53" s="24" t="s">
-        <v>507</v>
+      <c r="K53" s="25" t="s">
+        <v>506</v>
       </c>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -11296,9 +11853,9 @@
         <v>74</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D56" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D56" s="105" t="s">
         <v>414</v>
       </c>
       <c r="E56" s="5">
@@ -11309,7 +11866,7 @@
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="46"/>
-      <c r="I56" s="108" t="s">
+      <c r="I56" s="107" t="s">
         <v>409</v>
       </c>
       <c r="J56" s="45"/>
@@ -11325,9 +11882,9 @@
         <v>74</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D57" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" s="105" t="s">
         <v>415</v>
       </c>
       <c r="E57" s="5">
@@ -11338,7 +11895,7 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="46"/>
-      <c r="I57" s="108" t="s">
+      <c r="I57" s="107" t="s">
         <v>409</v>
       </c>
       <c r="J57" s="5" t="s">
@@ -11356,9 +11913,9 @@
         <v>74</v>
       </c>
       <c r="C58" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D58" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D58" s="105" t="s">
         <v>416</v>
       </c>
       <c r="E58" s="5">
@@ -11369,7 +11926,7 @@
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="46"/>
-      <c r="I58" s="108" t="s">
+      <c r="I58" s="107" t="s">
         <v>409</v>
       </c>
       <c r="J58" s="5" t="s">
@@ -11387,9 +11944,9 @@
         <v>74</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D59" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="105" t="s">
         <v>417</v>
       </c>
       <c r="E59" s="5">
@@ -11400,7 +11957,7 @@
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="46"/>
-      <c r="I59" s="108" t="s">
+      <c r="I59" s="107" t="s">
         <v>409</v>
       </c>
       <c r="J59" s="5" t="s">
@@ -11418,9 +11975,9 @@
         <v>74</v>
       </c>
       <c r="C60" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D60" s="106" t="s">
+        <v>433</v>
+      </c>
+      <c r="D60" s="105" t="s">
         <v>418</v>
       </c>
       <c r="E60" s="5">
@@ -11431,7 +11988,7 @@
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="46"/>
-      <c r="I60" s="108" t="s">
+      <c r="I60" s="107" t="s">
         <v>409</v>
       </c>
       <c r="J60" s="5" t="s">
@@ -11449,9 +12006,9 @@
         <v>74</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D61" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="106" t="s">
         <v>401</v>
       </c>
       <c r="E61" s="5">
@@ -11462,7 +12019,7 @@
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="46"/>
-      <c r="I61" s="108" t="s">
+      <c r="I61" s="107" t="s">
         <v>409</v>
       </c>
       <c r="J61" s="5" t="s">
@@ -11480,9 +12037,9 @@
         <v>74</v>
       </c>
       <c r="C62" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D62" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D62" s="106" t="s">
         <v>400</v>
       </c>
       <c r="E62" s="5">
@@ -11496,11 +12053,11 @@
       <c r="I62" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="J62" s="108" t="s">
+      <c r="J62" s="107" t="s">
         <v>408</v>
       </c>
       <c r="K62" s="46"/>
-      <c r="L62" s="108" t="s">
+      <c r="L62" s="107" t="s">
         <v>409</v>
       </c>
       <c r="M62" s="45"/>
@@ -11513,9 +12070,9 @@
         <v>74</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D63" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D63" s="106" t="s">
         <v>402</v>
       </c>
       <c r="E63" s="5">
@@ -11529,11 +12086,11 @@
       <c r="I63" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="J63" s="108" t="s">
+      <c r="J63" s="107" t="s">
         <v>408</v>
       </c>
       <c r="K63" s="46"/>
-      <c r="L63" s="108" t="s">
+      <c r="L63" s="107" t="s">
         <v>409</v>
       </c>
       <c r="M63" s="45"/>
@@ -11546,9 +12103,9 @@
         <v>74</v>
       </c>
       <c r="C64" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D64" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D64" s="106" t="s">
         <v>403</v>
       </c>
       <c r="E64" s="5">
@@ -11562,11 +12119,11 @@
       <c r="I64" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="J64" s="108" t="s">
+      <c r="J64" s="107" t="s">
         <v>408</v>
       </c>
       <c r="K64" s="46"/>
-      <c r="L64" s="108" t="s">
+      <c r="L64" s="107" t="s">
         <v>409</v>
       </c>
       <c r="M64" s="45"/>
@@ -11579,9 +12136,9 @@
         <v>74</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D65" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D65" s="106" t="s">
         <v>404</v>
       </c>
       <c r="E65" s="5">
@@ -11595,11 +12152,11 @@
       <c r="I65" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="J65" s="108" t="s">
+      <c r="J65" s="107" t="s">
         <v>408</v>
       </c>
       <c r="K65" s="46"/>
-      <c r="L65" s="108" t="s">
+      <c r="L65" s="107" t="s">
         <v>409</v>
       </c>
       <c r="M65" s="45"/>
@@ -11612,9 +12169,9 @@
         <v>74</v>
       </c>
       <c r="C66" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D66" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D66" s="106" t="s">
         <v>405</v>
       </c>
       <c r="E66" s="5">
@@ -11628,11 +12185,11 @@
       <c r="I66" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="J66" s="108" t="s">
+      <c r="J66" s="107" t="s">
         <v>408</v>
       </c>
       <c r="K66" s="46"/>
-      <c r="L66" s="108" t="s">
+      <c r="L66" s="107" t="s">
         <v>409</v>
       </c>
       <c r="M66" s="45"/>
@@ -11645,9 +12202,9 @@
         <v>74</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D67" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67" s="106" t="s">
         <v>407</v>
       </c>
       <c r="E67" s="5">
@@ -11661,11 +12218,11 @@
       <c r="I67" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="J67" s="108" t="s">
+      <c r="J67" s="107" t="s">
         <v>408</v>
       </c>
       <c r="K67" s="46"/>
-      <c r="L67" s="108" t="s">
+      <c r="L67" s="107" t="s">
         <v>409</v>
       </c>
       <c r="M67" s="45"/>
@@ -11678,9 +12235,9 @@
         <v>74</v>
       </c>
       <c r="C68" s="46" t="s">
-        <v>434</v>
-      </c>
-      <c r="D68" s="107" t="s">
+        <v>433</v>
+      </c>
+      <c r="D68" s="106" t="s">
         <v>406</v>
       </c>
       <c r="E68" s="5">
@@ -11694,10 +12251,10 @@
       <c r="J68" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="K68" s="108" t="s">
+      <c r="K68" s="107" t="s">
         <v>408</v>
       </c>
-      <c r="L68" s="108"/>
+      <c r="L68" s="107"/>
       <c r="M68" s="45"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
@@ -11708,10 +12265,10 @@
         <v>74</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -11723,13 +12280,13 @@
       <c r="H69" s="45"/>
       <c r="I69" s="46"/>
       <c r="J69" s="45" t="s">
-        <v>499</v>
-      </c>
-      <c r="K69" s="108" t="s">
+        <v>498</v>
+      </c>
+      <c r="K69" s="107" t="s">
         <v>408</v>
       </c>
       <c r="L69" s="46" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M69" s="45"/>
     </row>
@@ -11741,10 +12298,10 @@
         <v>74</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D70" s="21" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -11760,7 +12317,7 @@
         <v>423</v>
       </c>
       <c r="L70" s="45" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M70" s="45"/>
     </row>
@@ -11783,7 +12340,9 @@
       <c r="F71" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G71" s="22"/>
+      <c r="G71" s="22" t="s">
+        <v>579</v>
+      </c>
       <c r="H71" s="22" t="s">
         <v>383</v>
       </c>
@@ -11811,12 +12370,16 @@
       <c r="F72" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22" t="s">
+      <c r="G72" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="H72" s="28" t="s">
         <v>362</v>
       </c>
       <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
+      <c r="J72" s="23" t="s">
+        <v>578</v>
+      </c>
       <c r="L72" s="22"/>
       <c r="M72" s="6"/>
     </row>
@@ -11839,7 +12402,9 @@
       <c r="F73" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G73" s="5"/>
+      <c r="G73" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H73" s="22" t="s">
         <v>362</v>
       </c>
@@ -11868,11 +12433,15 @@
       <c r="F74" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="22" t="s">
+      <c r="G74" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H74" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="I74" s="22"/>
+      <c r="I74" s="23" t="s">
+        <v>578</v>
+      </c>
       <c r="J74" s="22"/>
       <c r="K74" s="22"/>
       <c r="L74" s="22"/>
@@ -11897,11 +12466,15 @@
       <c r="F75" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22" t="s">
+      <c r="G75" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="H75" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="I75" s="22"/>
+      <c r="I75" s="23" t="s">
+        <v>578</v>
+      </c>
       <c r="J75" s="22"/>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
@@ -11926,7 +12499,9 @@
       <c r="F76" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G76" s="22"/>
+      <c r="G76" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H76" s="22" t="s">
         <v>362</v>
       </c>
@@ -11955,7 +12530,9 @@
       <c r="F77" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="22"/>
+      <c r="G77" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H77" s="22"/>
       <c r="I77" s="22" t="s">
         <v>362</v>
@@ -11984,7 +12561,9 @@
       <c r="F78" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G78" s="22"/>
+      <c r="G78" s="5" t="s">
+        <v>579</v>
+      </c>
       <c r="H78" s="22"/>
       <c r="I78" s="22" t="s">
         <v>362</v>
@@ -12071,9 +12650,13 @@
       <c r="F81" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="22" t="s">
+      <c r="G81" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>582</v>
+      </c>
+      <c r="J81" s="28" t="s">
         <v>362</v>
       </c>
       <c r="K81" s="22"/>
@@ -12088,7 +12671,7 @@
         <v>8</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D82" s="27" t="s">
         <v>420</v>
@@ -12120,12 +12703,12 @@
         <v>184</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E83" s="20">
         <v>3</v>
       </c>
-      <c r="F83" s="104" t="s">
+      <c r="F83" s="103" t="s">
         <v>361</v>
       </c>
       <c r="G83" s="5"/>
@@ -12146,7 +12729,7 @@
         <v>8</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D84" s="27" t="s">
         <v>421</v>
@@ -12175,10 +12758,10 @@
         <v>8</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E85" s="20">
         <v>3</v>
@@ -12190,7 +12773,7 @@
       <c r="H85" s="36"/>
       <c r="I85" s="23"/>
       <c r="J85" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K85" s="22"/>
       <c r="L85" s="23"/>
@@ -12204,10 +12787,10 @@
         <v>8</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D86" s="27" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E86" s="20">
         <v>3</v>
@@ -12287,7 +12870,7 @@
         <v>74</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D89" s="21" t="s">
         <v>191</v>
@@ -12314,7 +12897,7 @@
         <v>74</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D90" s="21" t="s">
         <v>190</v>
@@ -12341,7 +12924,7 @@
         <v>74</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D91" s="21" t="s">
         <v>192</v>
@@ -12574,7 +13157,7 @@
       </c>
       <c r="C101" s="6"/>
       <c r="D101" s="26" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E101" s="22">
         <v>1</v>
@@ -12899,706 +13482,757 @@
   </sheetData>
   <autoFilter ref="A13:M119"/>
   <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="F7:F8 D12 F10:F11 H12:M12 H103 H33:I33 C92:I93 B98:C98 B103:F103 B104:C104 E104:H104 B119:M119 B115:C118 B107:C107 K21:M21 L23:M23 K33:M33 J113:M113 B105:H106 E107:F108 B108:D108 G21 G107:M109 C109:F109 C112 C111:D111 H111:M111 C110 I110:M110 K112:M112 H112 E118:M118 H114:M117 C113:H113 C114 B109:B114 E23 B22:E22 B99:D100 F96:M100 B95:D97 F94:I95 E94:E100 J92:M95 D37 B50:I50 B19:B21 D29:D30 B28:C32 G22:M22 K50:M50 J49:M49 L49:L50 E28:F30 B39:M48 C94:D94 B49:H49 G23:I23 B33:B37 E33:F37 G34:M38 J71:M71 G26:G28 B26:E27 H26 K82:M82 I81:J82 G83:M83 G24:M25 D24:E25 B23:B25 D82:E82 D80:E80 B83:E83 H56:H61 K57:M61 K62:K67 M62:M68 J56:M56 H62:I67 H68 J68 G69:J69 L69:M69 G70:M70 B56:B70 E56:F70 B92:B94 B84:M91 B102:C102 I102:M106 B101:M101 L72:M72 G72:J72 B71:C81 D71:H71 D72:E76 G73:M76 G80:M80 G82:H82 F72:F82 A17:A117 A13:M13 B17:M17 H27:M28 G29:M30 D31:M32 C20:M20 A15:M16 A14:I14 K14:M14 B18:H18 J18:M18 K19:M19 C19:I19 J26:M26 B51:M55">
-    <cfRule type="cellIs" dxfId="214" priority="461" operator="equal">
+  <conditionalFormatting sqref="F7:F8 D12 F10:F11 H12:M12 H103 C92:I93 B98:C98 B103:F103 B104:C104 E104:H104 B119:M119 B115:C118 B107:C107 K21:M21 L23:M23 K33:M33 J113:M113 B105:H106 E107:F108 B108:D108 G21 G107:M109 C109:F109 C112 C111:D111 H111:M111 C110 I110:M110 K112:M112 H112 E118:M118 H114:M117 C113:H113 C114 B109:B114 E23 B22:E22 B99:D100 F96:M100 B95:D97 F94:I95 E94:E100 J92:M95 D37 B19:B21 D29:D30 B28:C32 G22:M22 E28:F30 C94:D94 B49:H49 G23:I23 B33:B37 E33:F37 J71:M71 B26:E27 H26 K82:M82 I81:J82 G83:M83 D24:E25 B23:B25 D82:E82 D80:E80 B83:E83 H56:H61 K57:M61 K62:K67 M62:M68 J56:M56 H62:I67 H68 J68 G69:J69 L69:M69 G70:M70 B56:B70 E56:F70 B92:B94 B84:M91 B102:C102 I102:M106 B101:M101 L72:M72 G72:J72 B71:C81 D72:E76 G80:M80 G82:H82 F72:F82 A17:A117 A13:M13 B17:M17 H27:M28 C20:M20 A14:I16 B18:H18 J18:M18 K19:M19 C19:I19 J26:M26 K14:M16 G24:M25 G29:M30 G26:G28 D31:M32 H33:I33 I35:M35 G34:M34 G35:G36 G36:M38 B39:M47 B48:J48 M48 K49:L49 B50:M55 G73:M76 G77:G78 D71:H71">
+    <cfRule type="cellIs" dxfId="230" priority="479" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L23:M23 K21:M21 J26:M26 J103:M103 H103 K100:K101 J99:K99 G113:H113 J113:M113 J105:M106 G105:H106 G108:M109 I103:I106 H23 E105:E109 E113 H111:M111 I110:M110 K112:M112 H112 K22 K28:K31 L30 E23 K51:K55 K39:K48 I22:I23 G71 K85:K88 H27:M27 K20 E26:E27 H26 I81:J83 I24:J25 F84 F92:F94 I102:M102 E103:F103 E101:H101 L72">
-    <cfRule type="cellIs" dxfId="213" priority="463" operator="equal">
+  <conditionalFormatting sqref="L23:M23 K21:M21 J26:M26 J103:M103 H103 K100:K101 J99:K99 G113:H113 J113:M113 J105:M106 G105:H106 G108:M109 I103:I106 H23 E105:E109 E113 H111:M111 I110:M110 K112:M112 H112 K22 L30 E23 I22:I23 G71 K85:K88 H27:M27 K20 E26:E27 H26 I81:J83 F84 F92:F94 I102:M102 E103:F103 E101:H101 L72 I24:J25 K28:K31 K39:K47 K51:K55">
+    <cfRule type="cellIs" dxfId="229" priority="481" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="464" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="228" priority="482" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",E20)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I6 L23:M23 K21:M21 J26:M26 J103:M103 H103 K100:K101 J99:K99 E103:F103 G113:H113 J113:M113 J105:M106 G105:H106 G108:M109 I103:I106 H23 E105:E109 E113 H111:M111 I110:M110 K112:M112 H112 K22 K28:K31 L30 E23 K51:K55 K39:K48 I22:I23 G71 K85:K88 H27:M27 K20 E26:E27 H26 I81:J83 I24:J25 F84 F92:F94 I102:M102 E101:H101 L72">
-    <cfRule type="cellIs" dxfId="211" priority="462" operator="equal">
+  <conditionalFormatting sqref="I2:I6 L23:M23 K21:M21 J26:M26 J103:M103 H103 K100:K101 J99:K99 E103:F103 G113:H113 J113:M113 J105:M106 G105:H106 G108:M109 I103:I106 H23 E105:E109 E113 H111:M111 I110:M110 K112:M112 H112 K22 L30 E23 I22:I23 G71 K85:K88 H27:M27 K20 E26:E27 H26 I81:J83 F84 F92:F94 I102:M102 E101:H101 L72 I24:J25 K28:K31 K39:K47 K51:K55">
+    <cfRule type="cellIs" dxfId="227" priority="480" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112:I113">
-    <cfRule type="cellIs" dxfId="210" priority="319" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="337" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112:I113">
-    <cfRule type="cellIs" dxfId="209" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="339" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="322" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="224" priority="340" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",I112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112:I113">
-    <cfRule type="cellIs" dxfId="207" priority="320" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="338" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="206" priority="310" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="328" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="205" priority="312" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="330" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="204" priority="313" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="220" priority="331" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="203" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="329" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="202" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="315" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="201" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="317" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="300" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="216" priority="318" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="199" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="316" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99:F100">
-    <cfRule type="cellIs" dxfId="198" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="280" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="263" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="213" priority="281" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99:F100">
-    <cfRule type="cellIs" dxfId="196" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="279" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="cellIs" dxfId="195" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="277" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="260" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="210" priority="278" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",F100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="cellIs" dxfId="193" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="276" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104 D107">
-    <cfRule type="cellIs" dxfId="192" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="253" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33:D33 C56:C68 D34:D35 C34:C38 C69:D70">
-    <cfRule type="cellIs" dxfId="191" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="252" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L55">
-    <cfRule type="cellIs" dxfId="190" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="165" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="189" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="215" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="198" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="204" priority="216" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="187" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="214" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="186" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="212" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="195" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="201" priority="213" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29">
-    <cfRule type="cellIs" dxfId="184" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="211" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="183" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="206" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="189" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="198" priority="207" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="181" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="205" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:K86">
-    <cfRule type="cellIs" dxfId="180" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="178" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="179" priority="161" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="195" priority="179" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K85:K86">
-    <cfRule type="cellIs" dxfId="178" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="177" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87">
-    <cfRule type="cellIs" dxfId="177" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="175" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="158" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="192" priority="176" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",K87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K87">
-    <cfRule type="cellIs" dxfId="175" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="174" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88">
-    <cfRule type="cellIs" dxfId="174" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="172" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="155" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="189" priority="173" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88">
-    <cfRule type="cellIs" dxfId="172" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="171" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88">
-    <cfRule type="cellIs" dxfId="171" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="169" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="152" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="186" priority="170" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88">
-    <cfRule type="cellIs" dxfId="169" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="168" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L55">
-    <cfRule type="cellIs" dxfId="168" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="166" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="149" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="183" priority="167" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",L54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="cellIs" dxfId="166" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="164" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33">
-    <cfRule type="cellIs" dxfId="165" priority="137" operator="equal">
+  <conditionalFormatting sqref="J112">
+    <cfRule type="cellIs" dxfId="181" priority="137" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G56:G68">
+    <cfRule type="cellIs" dxfId="180" priority="153" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="164" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="139" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="140" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J112">
+    <cfRule type="cellIs" dxfId="177" priority="138" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110 H110">
+    <cfRule type="cellIs" dxfId="176" priority="145" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G56:G68">
-    <cfRule type="cellIs" dxfId="163" priority="135" operator="equal">
+  <conditionalFormatting sqref="H110">
+    <cfRule type="cellIs" dxfId="175" priority="147" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="148" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",H110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H110">
+    <cfRule type="cellIs" dxfId="173" priority="146" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E110:G110">
+    <cfRule type="cellIs" dxfId="172" priority="141" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="162" priority="121" operator="equal">
+  <conditionalFormatting sqref="G110 E110">
+    <cfRule type="cellIs" dxfId="171" priority="143" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="122" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J112">
-    <cfRule type="cellIs" dxfId="160" priority="120" operator="equal">
+    <cfRule type="containsText" dxfId="170" priority="144" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G110 E110">
+    <cfRule type="cellIs" dxfId="169" priority="142" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D110 H110">
+  <conditionalFormatting sqref="E114:G114 E117:G117 G115:G116">
+    <cfRule type="cellIs" dxfId="168" priority="121" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114:G117 E114 E117">
+    <cfRule type="cellIs" dxfId="167" priority="123" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="124" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G114:G117 E114 E117">
+    <cfRule type="cellIs" dxfId="165" priority="122" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E111:G111">
+    <cfRule type="cellIs" dxfId="164" priority="129" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111 E111">
+    <cfRule type="cellIs" dxfId="163" priority="131" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="132" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G111 E111">
+    <cfRule type="cellIs" dxfId="161" priority="130" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E112:G112">
+    <cfRule type="cellIs" dxfId="160" priority="125" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112 E112">
     <cfRule type="cellIs" dxfId="159" priority="127" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="128" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G112 E112">
+    <cfRule type="cellIs" dxfId="157" priority="126" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115:D116 F115:F116">
+    <cfRule type="cellIs" dxfId="156" priority="120" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="158" priority="129" operator="equal">
+  <conditionalFormatting sqref="E115:E116">
+    <cfRule type="cellIs" dxfId="155" priority="119" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:F21 F22:F23 F26:F27">
+    <cfRule type="cellIs" dxfId="154" priority="115" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21 F22:F23 F26:F27">
+    <cfRule type="cellIs" dxfId="153" priority="117" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="130" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",H110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H110">
-    <cfRule type="cellIs" dxfId="156" priority="128" operator="equal">
+    <cfRule type="containsText" dxfId="152" priority="118" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21 F22:F23 F26:F27">
+    <cfRule type="cellIs" dxfId="151" priority="116" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E110:G110">
-    <cfRule type="cellIs" dxfId="155" priority="123" operator="equal">
+  <conditionalFormatting sqref="C23:D23 C24:C25">
+    <cfRule type="cellIs" dxfId="150" priority="114" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G110 E110">
-    <cfRule type="cellIs" dxfId="154" priority="125" operator="equal">
+  <conditionalFormatting sqref="D28">
+    <cfRule type="cellIs" dxfId="149" priority="113" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="cellIs" dxfId="148" priority="110" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F82">
+    <cfRule type="cellIs" dxfId="147" priority="107" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="126" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G110 E110">
-    <cfRule type="cellIs" dxfId="152" priority="124" operator="equal">
+    <cfRule type="containsText" dxfId="146" priority="108" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F71:F82">
+    <cfRule type="cellIs" dxfId="145" priority="106" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E114:G114 E117:G117 G115:G116">
-    <cfRule type="cellIs" dxfId="151" priority="103" operator="equal">
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="144" priority="103" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="104" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="142" priority="102" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:D86">
+    <cfRule type="cellIs" dxfId="141" priority="101" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G117 E114 E117">
-    <cfRule type="cellIs" dxfId="150" priority="105" operator="equal">
+  <conditionalFormatting sqref="D98">
+    <cfRule type="cellIs" dxfId="140" priority="95" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="139" priority="91" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85:C86">
+    <cfRule type="cellIs" dxfId="138" priority="90" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:F86">
+    <cfRule type="cellIs" dxfId="137" priority="89" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="cellIs" dxfId="136" priority="87" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="106" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G114:G117 E114 E117">
-    <cfRule type="cellIs" dxfId="148" priority="104" operator="equal">
+    <cfRule type="containsText" dxfId="135" priority="88" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="cellIs" dxfId="134" priority="86" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E111:G111">
-    <cfRule type="cellIs" dxfId="147" priority="111" operator="equal">
+  <conditionalFormatting sqref="D87">
+    <cfRule type="cellIs" dxfId="133" priority="82" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G111 E111">
-    <cfRule type="cellIs" dxfId="146" priority="113" operator="equal">
+  <conditionalFormatting sqref="C85:C86">
+    <cfRule type="cellIs" dxfId="132" priority="81" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D85:F86">
+    <cfRule type="cellIs" dxfId="131" priority="80" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="cellIs" dxfId="130" priority="78" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="114" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G111 E111">
-    <cfRule type="cellIs" dxfId="144" priority="112" operator="equal">
+    <cfRule type="containsText" dxfId="129" priority="79" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F85)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F85:F86">
+    <cfRule type="cellIs" dxfId="128" priority="77" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E112:G112">
-    <cfRule type="cellIs" dxfId="143" priority="107" operator="equal">
+  <conditionalFormatting sqref="C87">
+    <cfRule type="cellIs" dxfId="127" priority="72" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G112 E112">
-    <cfRule type="cellIs" dxfId="142" priority="109" operator="equal">
+  <conditionalFormatting sqref="D87:F87">
+    <cfRule type="cellIs" dxfId="126" priority="71" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="125" priority="69" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="110" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G112 E112">
-    <cfRule type="cellIs" dxfId="140" priority="108" operator="equal">
+    <cfRule type="containsText" dxfId="124" priority="70" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F87)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F87">
+    <cfRule type="cellIs" dxfId="123" priority="68" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D115:D116 F115:F116">
-    <cfRule type="cellIs" dxfId="139" priority="102" operator="equal">
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="122" priority="66" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E115:E116">
-    <cfRule type="cellIs" dxfId="138" priority="101" operator="equal">
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="121" priority="65" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:F21 F22:F23 F26:F27">
-    <cfRule type="cellIs" dxfId="137" priority="97" operator="equal">
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="120" priority="64" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21 F22:F23 F26:F27">
-    <cfRule type="cellIs" dxfId="136" priority="99" operator="equal">
+  <conditionalFormatting sqref="K50">
+    <cfRule type="cellIs" dxfId="119" priority="63" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L50">
+    <cfRule type="cellIs" dxfId="118" priority="62" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J53">
+    <cfRule type="cellIs" dxfId="117" priority="60" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="100" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21 F22:F23 F26:F27">
-    <cfRule type="cellIs" dxfId="134" priority="98" operator="equal">
+    <cfRule type="containsText" dxfId="116" priority="61" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J52)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52:J53">
+    <cfRule type="cellIs" dxfId="115" priority="59" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:D23 C24:C25">
-    <cfRule type="cellIs" dxfId="133" priority="96" operator="equal">
+  <conditionalFormatting sqref="J20">
+    <cfRule type="cellIs" dxfId="114" priority="58" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" dxfId="132" priority="95" operator="equal">
+  <conditionalFormatting sqref="K81:M81 D77:E79 D81:E81 G79:M79 H77:M78">
+    <cfRule type="cellIs" dxfId="113" priority="54" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="cellIs" dxfId="131" priority="92" operator="equal">
+  <conditionalFormatting sqref="K81:M81 E81 E77:E79 G79:M79 H77:M78">
+    <cfRule type="cellIs" dxfId="112" priority="56" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="111" priority="57" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K81:M81 E81 E77:E79 G79:M79 H77:M78">
+    <cfRule type="cellIs" dxfId="110" priority="55" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="cellIs" dxfId="109" priority="48" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F82">
-    <cfRule type="cellIs" dxfId="130" priority="89" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="90" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F71:F82">
-    <cfRule type="cellIs" dxfId="128" priority="88" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="127" priority="85" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="86" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="125" priority="84" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:D86">
-    <cfRule type="cellIs" dxfId="124" priority="83" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D98">
-    <cfRule type="cellIs" dxfId="123" priority="77" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="122" priority="73" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C86">
-    <cfRule type="cellIs" dxfId="121" priority="72" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:F86">
-    <cfRule type="cellIs" dxfId="120" priority="71" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="119" priority="69" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="70" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="117" priority="68" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="116" priority="64" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85:C86">
-    <cfRule type="cellIs" dxfId="115" priority="63" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D85:F86">
-    <cfRule type="cellIs" dxfId="114" priority="62" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="113" priority="60" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="61" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F85)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F85:F86">
-    <cfRule type="cellIs" dxfId="111" priority="59" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="cellIs" dxfId="110" priority="54" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D87:F87">
-    <cfRule type="cellIs" dxfId="109" priority="53" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="108" priority="51" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="52" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F87">
-    <cfRule type="cellIs" dxfId="106" priority="50" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J50">
+  <conditionalFormatting sqref="B38 E38:F38">
     <cfRule type="cellIs" dxfId="105" priority="49" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="104" priority="48" operator="equal">
+  <conditionalFormatting sqref="F84">
+    <cfRule type="cellIs" dxfId="103" priority="43" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="103" priority="47" operator="equal">
+  <conditionalFormatting sqref="F84">
+    <cfRule type="cellIs" dxfId="102" priority="41" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="42" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="cellIs" dxfId="100" priority="40" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="cellIs" dxfId="99" priority="39" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="102" priority="46" operator="equal">
+  <conditionalFormatting sqref="F84">
+    <cfRule type="cellIs" dxfId="98" priority="37" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="38" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",F84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F84">
+    <cfRule type="cellIs" dxfId="96" priority="36" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B82:C82">
+    <cfRule type="cellIs" dxfId="95" priority="35" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="101" priority="45" operator="equal">
+  <conditionalFormatting sqref="D56:D60">
+    <cfRule type="cellIs" dxfId="94" priority="34" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="100" priority="44" operator="equal">
+  <conditionalFormatting sqref="J57:J61">
+    <cfRule type="cellIs" dxfId="93" priority="33" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J53">
-    <cfRule type="cellIs" dxfId="99" priority="42" operator="equal">
+  <conditionalFormatting sqref="E102:H102">
+    <cfRule type="cellIs" dxfId="92" priority="32" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="cellIs" dxfId="91" priority="31" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="90" priority="30" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K23">
+    <cfRule type="cellIs" dxfId="89" priority="29" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="88" priority="25" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="87" priority="27" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="43" operator="containsText" text="已完成">
+    <cfRule type="containsText" dxfId="86" priority="28" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",J19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="cellIs" dxfId="85" priority="26" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="84" priority="22" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="83" priority="23" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="24" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="81" priority="19" operator="equal">
+      <formula>"已完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J52">
+    <cfRule type="cellIs" dxfId="80" priority="20" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="21" operator="containsText" text="已完成">
       <formula>NOT(ISERROR(SEARCH("已完成",J52)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52:J53">
-    <cfRule type="cellIs" dxfId="97" priority="41" operator="equal">
+  <conditionalFormatting sqref="J14:J16">
+    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="77" priority="16" operator="equal">
+      <formula>"顺延"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="已完成">
+      <formula>NOT(ISERROR(SEARCH("已完成",K32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="96" priority="40" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:M81 D77:E79 D81:E81 G77:M79">
-    <cfRule type="cellIs" dxfId="95" priority="36" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:M81 E81 E77:E79 G77:M79">
-    <cfRule type="cellIs" dxfId="94" priority="38" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="39" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",E77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K81:M81 E81 E77:E79 G77:M79">
-    <cfRule type="cellIs" dxfId="92" priority="37" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="91" priority="32" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="90" priority="34" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="35" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",G81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G81">
-    <cfRule type="cellIs" dxfId="88" priority="33" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38 E38:F38">
-    <cfRule type="cellIs" dxfId="87" priority="31" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D38">
-    <cfRule type="cellIs" dxfId="86" priority="30" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="cellIs" dxfId="85" priority="25" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="cellIs" dxfId="84" priority="23" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="24" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="cellIs" dxfId="82" priority="22" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="cellIs" dxfId="81" priority="21" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="cellIs" dxfId="80" priority="19" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="20" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",F84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F84">
-    <cfRule type="cellIs" dxfId="78" priority="18" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B82:C82">
-    <cfRule type="cellIs" dxfId="77" priority="17" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D56:D60">
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57:J61">
-    <cfRule type="cellIs" dxfId="75" priority="15" operator="equal">
-      <formula>"TBD"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E102:H102">
+  <conditionalFormatting sqref="G33">
     <cfRule type="cellIs" dxfId="74" priority="14" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D102">
+  <conditionalFormatting sqref="K50">
     <cfRule type="cellIs" dxfId="73" priority="13" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
+  <conditionalFormatting sqref="J50">
     <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
+  <conditionalFormatting sqref="K50">
     <cfRule type="cellIs" dxfId="71" priority="11" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="K48:L48">
     <cfRule type="cellIs" dxfId="70" priority="7" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+  <conditionalFormatting sqref="K48">
     <cfRule type="cellIs" dxfId="69" priority="9" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
+      <formula>NOT(ISERROR(SEARCH("已完成",K48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
     <cfRule type="cellIs" dxfId="67" priority="8" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="66" priority="4" operator="equal">
-      <formula>"已完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
+  <conditionalFormatting sqref="I49:J49">
+    <cfRule type="cellIs" dxfId="66" priority="3" operator="equal">
+      <formula>"TBD"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
     <cfRule type="cellIs" dxfId="65" priority="5" operator="equal">
       <formula>"顺延"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="64" priority="6" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",K54)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+      <formula>NOT(ISERROR(SEARCH("已完成",I49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="cellIs" dxfId="63" priority="4" operator="equal">
       <formula>"已完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J52">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
-      <formula>"顺延"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="3" operator="containsText" text="已完成">
-      <formula>NOT(ISERROR(SEARCH("已完成",J52)))</formula>
+  <conditionalFormatting sqref="G81">
+    <cfRule type="cellIs" dxfId="62" priority="1" operator="equal">
+      <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13611,34 +14245,34 @@
   <dimension ref="A2:R83"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="F42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="M68" sqref="M68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="47"/>
-    <col min="2" max="2" width="38.5703125" style="125" customWidth="1"/>
-    <col min="3" max="3" width="4" style="126" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="125" customWidth="1"/>
-    <col min="5" max="5" width="3.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="127" customWidth="1"/>
-    <col min="7" max="7" width="29.28515625" style="125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37" style="125" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" style="125" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.42578125" style="125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" style="125" customWidth="1"/>
-    <col min="15" max="15" width="4.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" style="125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="127" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" style="125" customWidth="1"/>
-    <col min="20" max="16384" width="8.7109375" style="125"/>
+    <col min="2" max="2" width="38.5703125" style="124" customWidth="1"/>
+    <col min="3" max="3" width="4" style="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="124" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="126" customWidth="1"/>
+    <col min="7" max="7" width="29.28515625" style="124" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="126" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37" style="124" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" style="124" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="126" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.42578125" style="124" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="124" customWidth="1"/>
+    <col min="15" max="15" width="4.42578125" style="126" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="124" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" style="124" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="126" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="124" customWidth="1"/>
+    <col min="20" max="16384" width="8.7109375" style="124"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
@@ -13684,409 +14318,409 @@
       <c r="B3" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="125">
         <v>0.3</v>
       </c>
       <c r="D3" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="E3" s="126">
+      <c r="E3" s="125">
         <v>0.3</v>
       </c>
-      <c r="F3" s="155" t="s">
-        <v>570</v>
+      <c r="F3" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="C4" s="126">
+      <c r="C4" s="125">
         <v>1</v>
       </c>
       <c r="D4" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="E4" s="126">
+      <c r="E4" s="125">
         <v>1</v>
       </c>
-      <c r="F4" s="155" t="s">
-        <v>570</v>
+      <c r="F4" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="C5" s="126">
+      <c r="C5" s="125">
         <v>1</v>
       </c>
       <c r="D5" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="126">
+      <c r="E5" s="125">
         <v>1</v>
       </c>
-      <c r="F5" s="155" t="s">
-        <v>570</v>
+      <c r="F5" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="126">
+      <c r="C6" s="125">
         <v>2</v>
       </c>
       <c r="D6" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="126">
+      <c r="E6" s="125">
         <v>2</v>
       </c>
-      <c r="F6" s="155" t="s">
-        <v>570</v>
+      <c r="F6" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="125">
         <v>0.5</v>
       </c>
-      <c r="D7" s="125" t="s">
+      <c r="D7" s="124" t="s">
         <v>289</v>
       </c>
-      <c r="E7" s="126">
+      <c r="E7" s="125">
         <v>0.5</v>
       </c>
-      <c r="F7" s="155" t="s">
-        <v>570</v>
+      <c r="F7" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="126">
+      <c r="C8" s="125">
         <v>1</v>
       </c>
-      <c r="G8" s="125" t="s">
+      <c r="G8" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="H8" s="125">
+      <c r="H8" s="124">
         <v>1</v>
       </c>
-      <c r="I8" s="155" t="s">
-        <v>570</v>
+      <c r="I8" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="125">
         <v>1</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="G9" s="128" t="s">
+      <c r="D9" s="127"/>
+      <c r="G9" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="H9" s="126">
+      <c r="H9" s="125">
         <v>1</v>
       </c>
-      <c r="I9" s="155" t="s">
-        <v>570</v>
+      <c r="I9" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="125" t="s">
+      <c r="B10" s="124" t="s">
         <v>253</v>
       </c>
-      <c r="C10" s="126">
+      <c r="C10" s="125">
         <v>1</v>
       </c>
       <c r="E10" s="72"/>
       <c r="F10" s="68"/>
-      <c r="G10" s="125" t="s">
+      <c r="G10" s="124" t="s">
         <v>253</v>
       </c>
-      <c r="H10" s="126">
+      <c r="H10" s="125">
         <v>1</v>
       </c>
-      <c r="I10" s="155" t="s">
-        <v>570</v>
+      <c r="I10" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="C11" s="126">
+      <c r="C11" s="125">
         <v>1</v>
       </c>
-      <c r="D11" s="128"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="72"/>
-      <c r="G11" s="128" t="s">
+      <c r="G11" s="127" t="s">
         <v>252</v>
       </c>
-      <c r="H11" s="126">
+      <c r="H11" s="125">
         <v>1</v>
       </c>
-      <c r="I11" s="155" t="s">
-        <v>570</v>
+      <c r="I11" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="125" t="s">
+      <c r="B12" s="124" t="s">
         <v>326</v>
       </c>
-      <c r="C12" s="126">
+      <c r="C12" s="125">
         <v>0.7</v>
       </c>
-      <c r="G12" s="125" t="s">
+      <c r="G12" s="124" t="s">
         <v>326</v>
       </c>
-      <c r="H12" s="125">
+      <c r="H12" s="124">
         <v>0.7</v>
       </c>
-      <c r="I12" s="155" t="s">
-        <v>570</v>
+      <c r="I12" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="C13" s="126">
+      <c r="C13" s="125">
         <v>0.5</v>
       </c>
-      <c r="G13" s="125" t="s">
+      <c r="G13" s="124" t="s">
         <v>325</v>
       </c>
-      <c r="H13" s="125">
+      <c r="H13" s="124">
         <v>0.5</v>
       </c>
-      <c r="I13" s="155" t="s">
-        <v>570</v>
+      <c r="I13" s="154" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="127" t="s">
         <v>269</v>
       </c>
-      <c r="C14" s="126">
+      <c r="C14" s="125">
         <v>2</v>
       </c>
-      <c r="D14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="126">
+      <c r="D14" s="127"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="125">
         <v>0.5</v>
       </c>
-      <c r="J14" s="128" t="s">
+      <c r="J14" s="127" t="s">
         <v>269</v>
       </c>
-      <c r="K14" s="125">
+      <c r="K14" s="124">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="125" t="s">
+      <c r="B15" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="126">
+      <c r="C15" s="125">
         <v>3</v>
       </c>
-      <c r="H15" s="126"/>
-      <c r="J15" s="125" t="s">
+      <c r="H15" s="125"/>
+      <c r="J15" s="124" t="s">
         <v>250</v>
       </c>
-      <c r="K15" s="125">
+      <c r="K15" s="124">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
+      <c r="B16" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="126">
+      <c r="C16" s="125">
         <v>0.5</v>
       </c>
       <c r="F16" s="68"/>
-      <c r="J16" s="125" t="s">
+      <c r="J16" s="124" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="126">
+      <c r="K16" s="125">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="124" t="s">
         <v>251</v>
       </c>
-      <c r="C17" s="126">
+      <c r="C17" s="125">
         <v>0.5</v>
       </c>
       <c r="I17" s="68"/>
-      <c r="J17" s="125" t="s">
+      <c r="J17" s="124" t="s">
         <v>251</v>
       </c>
-      <c r="K17" s="125">
+      <c r="K17" s="124">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="C18" s="126">
+      <c r="C18" s="125">
         <v>0.5</v>
       </c>
-      <c r="H18" s="126"/>
-      <c r="J18" s="125" t="s">
+      <c r="H18" s="125"/>
+      <c r="J18" s="124" t="s">
         <v>335</v>
       </c>
-      <c r="K18" s="125">
+      <c r="K18" s="124">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="128" t="s">
+      <c r="B19" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="C19" s="126">
+      <c r="C19" s="125">
         <v>0.2</v>
       </c>
-      <c r="D19" s="128"/>
+      <c r="D19" s="127"/>
       <c r="E19" s="72"/>
-      <c r="J19" s="128" t="s">
+      <c r="J19" s="127" t="s">
         <v>331</v>
       </c>
-      <c r="K19" s="125">
+      <c r="K19" s="124">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="128" t="s">
+      <c r="B20" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="C20" s="126">
+      <c r="C20" s="125">
         <v>0.5</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="127"/>
       <c r="E20" s="72"/>
-      <c r="J20" s="128" t="s">
+      <c r="J20" s="127" t="s">
         <v>332</v>
       </c>
-      <c r="K20" s="126">
+      <c r="K20" s="125">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="125" t="s">
+      <c r="B21" s="124" t="s">
         <v>328</v>
       </c>
-      <c r="C21" s="126">
+      <c r="C21" s="125">
         <v>0.2</v>
       </c>
-      <c r="H21" s="126"/>
-      <c r="J21" s="125" t="s">
+      <c r="H21" s="125"/>
+      <c r="J21" s="124" t="s">
         <v>327</v>
       </c>
-      <c r="K21" s="125">
+      <c r="K21" s="124">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="125">
         <v>0.5</v>
       </c>
-      <c r="K22" s="126"/>
-      <c r="M22" s="125" t="s">
+      <c r="K22" s="125"/>
+      <c r="M22" s="124" t="s">
         <v>310</v>
       </c>
-      <c r="N22" s="126">
+      <c r="N22" s="125">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="126">
+      <c r="C23" s="125">
         <v>0.5</v>
       </c>
-      <c r="H23" s="126"/>
-      <c r="M23" s="125" t="s">
+      <c r="H23" s="125"/>
+      <c r="M23" s="124" t="s">
         <v>290</v>
       </c>
-      <c r="N23" s="126">
+      <c r="N23" s="125">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="124" t="s">
         <v>311</v>
       </c>
-      <c r="C24" s="126">
+      <c r="C24" s="125">
         <v>0.5</v>
       </c>
-      <c r="M24" s="125" t="s">
+      <c r="M24" s="124" t="s">
         <v>311</v>
       </c>
-      <c r="N24" s="126">
+      <c r="N24" s="125">
         <v>0.5</v>
       </c>
       <c r="P24" s="85"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="125" t="s">
+      <c r="B25" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="C25" s="126">
+      <c r="C25" s="125">
         <v>0.5</v>
       </c>
-      <c r="H25" s="126"/>
-      <c r="M25" s="125" t="s">
+      <c r="H25" s="125"/>
+      <c r="M25" s="124" t="s">
         <v>329</v>
       </c>
-      <c r="N25" s="125">
+      <c r="N25" s="124">
         <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="128" t="s">
+      <c r="B26" s="127" t="s">
         <v>334</v>
       </c>
-      <c r="C26" s="126">
+      <c r="C26" s="125">
         <v>0.5</v>
       </c>
-      <c r="D26" s="128"/>
+      <c r="D26" s="127"/>
       <c r="E26" s="72"/>
-      <c r="M26" s="128" t="s">
+      <c r="M26" s="127" t="s">
         <v>334</v>
       </c>
-      <c r="N26" s="126">
+      <c r="N26" s="125">
         <v>0.5</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="128" t="s">
+      <c r="B27" s="127" t="s">
         <v>333</v>
       </c>
-      <c r="C27" s="126">
+      <c r="C27" s="125">
         <v>0.5</v>
       </c>
-      <c r="D27" s="128"/>
+      <c r="D27" s="127"/>
       <c r="E27" s="72"/>
-      <c r="M27" s="128" t="s">
+      <c r="M27" s="127" t="s">
         <v>333</v>
       </c>
-      <c r="N27" s="126">
+      <c r="N27" s="125">
         <v>0.5</v>
       </c>
     </row>
@@ -14113,31 +14747,31 @@
       <c r="B29" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="C29" s="126">
+      <c r="C29" s="125">
         <v>0.2</v>
       </c>
-      <c r="H29" s="126"/>
+      <c r="H29" s="125"/>
       <c r="P29" s="85" t="s">
         <v>336</v>
       </c>
-      <c r="Q29" s="126">
+      <c r="Q29" s="125">
         <v>0.2</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="128" t="s">
+      <c r="B30" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="C30" s="126">
+      <c r="C30" s="125">
         <v>0.2</v>
       </c>
-      <c r="D30" s="128"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="72"/>
-      <c r="J30" s="128"/>
-      <c r="P30" s="128" t="s">
+      <c r="J30" s="127"/>
+      <c r="P30" s="127" t="s">
         <v>330</v>
       </c>
-      <c r="Q30" s="125">
+      <c r="Q30" s="124">
         <v>0.2</v>
       </c>
     </row>
@@ -14171,29 +14805,29 @@
       <c r="B33" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="C33" s="126">
+      <c r="C33" s="125">
         <f>SUM(C3:C31)</f>
         <v>26.799999999999997</v>
       </c>
       <c r="D33" s="59"/>
-      <c r="E33" s="126">
+      <c r="E33" s="125">
         <f>SUM(E3:E30)</f>
         <v>4.8</v>
       </c>
       <c r="G33" s="72"/>
-      <c r="H33" s="126">
+      <c r="H33" s="125">
         <f>SUM(H3:H30)</f>
         <v>5.7</v>
       </c>
-      <c r="K33" s="126">
+      <c r="K33" s="125">
         <f>SUM(K3:K30)</f>
         <v>5.9</v>
       </c>
-      <c r="N33" s="126">
+      <c r="N33" s="125">
         <f>SUM(N3:N30)</f>
         <v>5</v>
       </c>
-      <c r="Q33" s="126">
+      <c r="Q33" s="125">
         <f>SUM(Q3:Q31)</f>
         <v>4.4000000000000004</v>
       </c>
@@ -14204,7 +14838,7 @@
       <c r="G34" s="72"/>
       <c r="J34" s="72"/>
     </row>
-    <row r="35" spans="1:18" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>257</v>
       </c>
@@ -14214,28 +14848,28 @@
       <c r="C35" s="88">
         <v>1</v>
       </c>
-      <c r="D35" s="154" t="s">
+      <c r="D35" s="153" t="s">
         <v>249</v>
       </c>
       <c r="E35" s="88">
         <v>1</v>
       </c>
-      <c r="F35" s="129"/>
+      <c r="F35" s="128"/>
       <c r="G35" s="85" t="s">
         <v>249</v>
       </c>
       <c r="H35" s="88">
         <v>1</v>
       </c>
-      <c r="I35" s="156" t="s">
-        <v>571</v>
-      </c>
-      <c r="L35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="R35" s="129"/>
+      <c r="I35" s="155" t="s">
+        <v>570</v>
+      </c>
+      <c r="L35" s="128"/>
+      <c r="O35" s="128"/>
+      <c r="R35" s="128"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="125"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="72" t="s">
         <v>299</v>
       </c>
@@ -14248,36 +14882,36 @@
       <c r="E36" s="88">
         <v>1.5</v>
       </c>
-      <c r="F36" s="155" t="s">
-        <v>572</v>
+      <c r="F36" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="125"/>
-      <c r="B37" s="125" t="s">
+      <c r="A37" s="124"/>
+      <c r="B37" s="124" t="s">
         <v>270</v>
       </c>
       <c r="C37" s="88">
         <v>1.5</v>
       </c>
-      <c r="D37" s="125" t="s">
+      <c r="D37" s="124" t="s">
         <v>270</v>
       </c>
       <c r="E37" s="88">
         <v>1</v>
       </c>
-      <c r="G37" s="125" t="s">
+      <c r="G37" s="124" t="s">
         <v>302</v>
       </c>
-      <c r="H37" s="125">
+      <c r="H37" s="124">
         <v>0.5</v>
       </c>
-      <c r="I37" s="155" t="s">
-        <v>572</v>
+      <c r="I37" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="51" x14ac:dyDescent="0.25">
-      <c r="A38" s="125"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="91" t="s">
         <v>312</v>
       </c>
@@ -14290,12 +14924,12 @@
       <c r="E38" s="88">
         <v>0.5</v>
       </c>
-      <c r="F38" s="155" t="s">
-        <v>572</v>
+      <c r="F38" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="125"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="72" t="s">
         <v>313</v>
       </c>
@@ -14309,8 +14943,8 @@
       <c r="H39" s="88">
         <v>0.5</v>
       </c>
-      <c r="I39" s="155" t="s">
-        <v>572</v>
+      <c r="I39" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
@@ -14324,7 +14958,7 @@
       <c r="G40" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="H40" s="125">
+      <c r="H40" s="124">
         <v>1</v>
       </c>
       <c r="J40" s="84"/>
@@ -14333,22 +14967,22 @@
       <c r="N40" s="88"/>
     </row>
     <row r="41" spans="1:18" ht="34" x14ac:dyDescent="0.25">
-      <c r="A41" s="125"/>
-      <c r="B41" s="130" t="s">
+      <c r="A41" s="124"/>
+      <c r="B41" s="129" t="s">
         <v>247</v>
       </c>
       <c r="C41" s="88">
         <v>2</v>
       </c>
       <c r="D41" s="59"/>
-      <c r="G41" s="157" t="s">
-        <v>573</v>
+      <c r="G41" s="156" t="s">
+        <v>572</v>
       </c>
       <c r="H41" s="88">
         <v>1</v>
       </c>
-      <c r="J41" s="158" t="s">
-        <v>502</v>
+      <c r="J41" s="157" t="s">
+        <v>501</v>
       </c>
       <c r="K41" s="88">
         <v>1</v>
@@ -14371,7 +15005,7 @@
       <c r="H42" s="89">
         <v>1</v>
       </c>
-      <c r="J42" s="158" t="s">
+      <c r="J42" s="157" t="s">
         <v>309</v>
       </c>
       <c r="K42" s="89">
@@ -14427,210 +15061,210 @@
       <c r="M45" s="84"/>
       <c r="N45" s="88"/>
     </row>
-    <row r="46" spans="1:18" s="128" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="81"/>
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="124" t="s">
         <v>291</v>
       </c>
-      <c r="C46" s="132">
+      <c r="C46" s="131">
         <v>0.5</v>
       </c>
-      <c r="F46" s="129"/>
+      <c r="F46" s="128"/>
       <c r="G46" s="85"/>
-      <c r="I46" s="129"/>
-      <c r="L46" s="129"/>
+      <c r="I46" s="128"/>
+      <c r="L46" s="128"/>
       <c r="M46" s="85"/>
-      <c r="O46" s="129"/>
+      <c r="O46" s="128"/>
       <c r="P46" s="85"/>
-      <c r="R46" s="129"/>
-    </row>
-    <row r="47" spans="1:18" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R46" s="128"/>
+    </row>
+    <row r="47" spans="1:18" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="81"/>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="127" t="s">
         <v>271</v>
       </c>
-      <c r="C47" s="132">
+      <c r="C47" s="131">
         <v>0.5</v>
       </c>
-      <c r="F47" s="129"/>
-      <c r="G47" s="131"/>
-      <c r="I47" s="129"/>
-      <c r="L47" s="129"/>
-      <c r="O47" s="129"/>
-      <c r="R47" s="129"/>
-    </row>
-    <row r="48" spans="1:18" s="128" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="128"/>
+      <c r="G47" s="130"/>
+      <c r="I47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="O47" s="128"/>
+      <c r="R47" s="128"/>
+    </row>
+    <row r="48" spans="1:18" s="127" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="81"/>
       <c r="B48" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="C48" s="132">
+      <c r="C48" s="131">
         <v>0.5</v>
       </c>
-      <c r="F48" s="129"/>
-      <c r="G48" s="131"/>
-      <c r="I48" s="129"/>
-      <c r="L48" s="129"/>
-      <c r="O48" s="129"/>
-      <c r="R48" s="129"/>
+      <c r="F48" s="128"/>
+      <c r="G48" s="130"/>
+      <c r="I48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="O48" s="128"/>
+      <c r="R48" s="128"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B49" s="125" t="s">
+      <c r="B49" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="C49" s="126">
+      <c r="C49" s="125">
         <v>2</v>
       </c>
-      <c r="G49" s="133"/>
+      <c r="G49" s="132"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="124" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="126">
+      <c r="C50" s="125">
         <v>2</v>
       </c>
-      <c r="G50" s="131"/>
+      <c r="G50" s="130"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G51" s="131"/>
+      <c r="G51" s="130"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B52" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="126">
+      <c r="C52" s="125">
         <f>SUM(C35:C50)</f>
         <v>20.5</v>
       </c>
-      <c r="E52" s="126">
+      <c r="E52" s="125">
         <f>SUM(E35:E50)</f>
         <v>4</v>
       </c>
-      <c r="G52" s="134"/>
-      <c r="H52" s="126">
+      <c r="G52" s="133"/>
+      <c r="H52" s="125">
         <f>SUM(H35:H50)</f>
         <v>5</v>
       </c>
-      <c r="K52" s="126">
+      <c r="K52" s="125">
         <f>SUM(K35:K50)</f>
         <v>3</v>
       </c>
       <c r="M52" s="76"/>
-      <c r="N52" s="126">
+      <c r="N52" s="125">
         <f>SUM(N35:N50)</f>
         <v>1.5</v>
       </c>
-      <c r="Q52" s="126">
+      <c r="Q52" s="125">
         <f>SUM(Q35:Q50)</f>
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G53" s="131"/>
+      <c r="G53" s="130"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="G54" s="134"/>
+      <c r="G54" s="133"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B55" s="135" t="s">
+      <c r="B55" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="C55" s="126">
+      <c r="C55" s="125">
         <v>1.5</v>
       </c>
-      <c r="D55" s="135" t="s">
+      <c r="D55" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="E55" s="125">
+      <c r="E55" s="124">
         <v>1.5</v>
       </c>
-      <c r="F55" s="155" t="s">
-        <v>572</v>
-      </c>
-      <c r="G55" s="134"/>
+      <c r="F55" s="154" t="s">
+        <v>571</v>
+      </c>
+      <c r="G55" s="133"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="135" t="s">
         <v>314</v>
       </c>
-      <c r="C56" s="126">
+      <c r="C56" s="125">
         <v>2</v>
       </c>
-      <c r="D56" s="136" t="s">
+      <c r="D56" s="135" t="s">
         <v>314</v>
       </c>
-      <c r="E56" s="125">
+      <c r="E56" s="124">
         <v>2</v>
       </c>
-      <c r="F56" s="155" t="s">
-        <v>572</v>
-      </c>
-      <c r="G56" s="134"/>
+      <c r="F56" s="154" t="s">
+        <v>571</v>
+      </c>
+      <c r="G56" s="133"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="125" t="s">
+      <c r="B57" s="124" t="s">
         <v>316</v>
       </c>
-      <c r="C57" s="126">
+      <c r="C57" s="125">
         <v>2</v>
       </c>
-      <c r="D57" s="125" t="s">
+      <c r="D57" s="124" t="s">
         <v>315</v>
       </c>
-      <c r="E57" s="125">
+      <c r="E57" s="124">
         <v>1.5</v>
       </c>
-      <c r="F57" s="155" t="s">
-        <v>572</v>
-      </c>
-      <c r="G57" s="125" t="s">
+      <c r="F57" s="154" t="s">
+        <v>571</v>
+      </c>
+      <c r="G57" s="124" t="s">
         <v>315</v>
       </c>
-      <c r="H57" s="125">
+      <c r="H57" s="124">
         <v>0.5</v>
       </c>
-      <c r="I57" s="155" t="s">
-        <v>572</v>
+      <c r="I57" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B58" s="125" t="s">
+      <c r="B58" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="C58" s="126">
+      <c r="C58" s="125">
         <v>1.5</v>
       </c>
-      <c r="G58" s="125" t="s">
+      <c r="G58" s="124" t="s">
         <v>318</v>
       </c>
-      <c r="H58" s="126">
+      <c r="H58" s="125">
         <v>1.5</v>
       </c>
-      <c r="I58" s="155" t="s">
-        <v>572</v>
+      <c r="I58" s="154" t="s">
+        <v>571</v>
       </c>
       <c r="J58" s="72"/>
       <c r="M58" s="72"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B59" s="125" t="s">
+      <c r="B59" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="C59" s="126">
+      <c r="C59" s="125">
         <v>3</v>
       </c>
-      <c r="G59" s="125" t="s">
+      <c r="G59" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="H59" s="126">
+      <c r="H59" s="125">
         <v>3</v>
       </c>
-      <c r="I59" s="155" t="s">
-        <v>572</v>
+      <c r="I59" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
@@ -14651,88 +15285,88 @@
       <c r="M60" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="N60" s="125">
+      <c r="N60" s="124">
         <v>1</v>
       </c>
-      <c r="O60" s="125"/>
+      <c r="O60" s="124"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="125" t="s">
+      <c r="B61" s="124" t="s">
         <v>298</v>
       </c>
-      <c r="C61" s="126">
+      <c r="C61" s="125">
         <v>3</v>
       </c>
-      <c r="G61" s="136"/>
-      <c r="J61" s="125" t="s">
+      <c r="G61" s="135"/>
+      <c r="J61" s="124" t="s">
         <v>319</v>
       </c>
-      <c r="K61" s="126">
+      <c r="K61" s="125">
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B62" s="125" t="s">
+      <c r="B62" s="124" t="s">
         <v>260</v>
       </c>
-      <c r="C62" s="126">
+      <c r="C62" s="125">
         <v>1.5</v>
       </c>
       <c r="L62" s="68"/>
-      <c r="M62" s="125" t="s">
+      <c r="M62" s="124" t="s">
         <v>322</v>
       </c>
-      <c r="N62" s="125">
+      <c r="N62" s="124">
         <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B63" s="125" t="s">
+      <c r="B63" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="126">
+      <c r="C63" s="125">
         <v>1.5</v>
       </c>
-      <c r="M63" s="125" t="s">
+      <c r="M63" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="N63" s="125">
+      <c r="N63" s="124">
         <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B64" s="125" t="s">
+      <c r="B64" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="C64" s="126">
+      <c r="C64" s="125">
         <v>2</v>
       </c>
       <c r="I64" s="68"/>
-      <c r="M64" s="159" t="s">
-        <v>574</v>
-      </c>
-      <c r="N64" s="126">
+      <c r="M64" s="161" t="s">
+        <v>573</v>
+      </c>
+      <c r="N64" s="125">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B65" s="125" t="s">
+      <c r="B65" s="124" t="s">
         <v>268</v>
       </c>
-      <c r="C65" s="126">
+      <c r="C65" s="125">
         <v>3</v>
       </c>
       <c r="I65" s="68"/>
-      <c r="M65" s="125" t="s">
+      <c r="M65" s="124" t="s">
         <v>320</v>
       </c>
-      <c r="N65" s="126">
+      <c r="N65" s="125">
         <v>1</v>
       </c>
-      <c r="P65" s="125" t="s">
+      <c r="P65" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="Q65" s="126">
+      <c r="Q65" s="125">
         <v>2</v>
       </c>
     </row>
@@ -14743,10 +15377,10 @@
       <c r="C66" s="88">
         <v>1.5</v>
       </c>
-      <c r="M66" s="125" t="s">
+      <c r="M66" s="124" t="s">
         <v>321</v>
       </c>
-      <c r="N66" s="126">
+      <c r="N66" s="125">
         <v>1</v>
       </c>
       <c r="P66" s="85" t="s">
@@ -14757,16 +15391,16 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B67" s="125" t="s">
+      <c r="B67" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="C67" s="126">
+      <c r="C67" s="125">
         <v>1</v>
       </c>
-      <c r="P67" s="125" t="s">
+      <c r="P67" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="Q67" s="126">
+      <c r="Q67" s="125">
         <v>1</v>
       </c>
     </row>
@@ -14789,38 +15423,38 @@
       <c r="C69" s="88"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="125"/>
+      <c r="A70" s="124"/>
       <c r="B70" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="C70" s="126">
+      <c r="C70" s="125">
         <f>SUM(C55:C68)</f>
         <v>28.5</v>
       </c>
-      <c r="E70" s="126">
+      <c r="E70" s="125">
         <f>SUM(E55:E68)</f>
         <v>5</v>
       </c>
-      <c r="H70" s="126">
+      <c r="H70" s="125">
         <f>SUM(H55:H68)</f>
         <v>5</v>
       </c>
-      <c r="K70" s="126">
+      <c r="K70" s="125">
         <f>SUM(K55:K68)</f>
         <v>4.5</v>
       </c>
       <c r="L70" s="68"/>
-      <c r="N70" s="126">
+      <c r="N70" s="125">
         <f>SUM(N55:N68)</f>
         <v>7</v>
       </c>
-      <c r="Q70" s="126">
+      <c r="Q70" s="125">
         <f>SUM(Q55:Q68)</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="125"/>
+      <c r="A71" s="124"/>
       <c r="L71" s="68"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
@@ -14830,182 +15464,182 @@
       <c r="B72" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="C72" s="126">
+      <c r="C72" s="125">
         <v>3</v>
       </c>
       <c r="D72" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="E72" s="126">
+      <c r="E72" s="125">
         <v>3</v>
       </c>
-      <c r="F72" s="155" t="s">
-        <v>572</v>
+      <c r="F72" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="34" x14ac:dyDescent="0.25">
       <c r="B73" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="C73" s="126">
+      <c r="C73" s="125">
         <v>2</v>
       </c>
       <c r="D73" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="E73" s="126">
+      <c r="E73" s="125">
         <v>1.5</v>
       </c>
-      <c r="F73" s="155" t="s">
-        <v>572</v>
+      <c r="F73" s="154" t="s">
+        <v>571</v>
       </c>
       <c r="G73" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="H73" s="125">
+      <c r="H73" s="124">
         <v>0.5</v>
       </c>
-      <c r="I73" s="155" t="s">
-        <v>572</v>
+      <c r="I73" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="34" x14ac:dyDescent="0.25">
-      <c r="A74" s="125"/>
-      <c r="B74" s="135" t="s">
+      <c r="A74" s="124"/>
+      <c r="B74" s="134" t="s">
         <v>280</v>
       </c>
-      <c r="C74" s="126">
+      <c r="C74" s="125">
         <v>3</v>
       </c>
-      <c r="G74" s="135" t="s">
+      <c r="G74" s="134" t="s">
         <v>280</v>
       </c>
-      <c r="H74" s="126">
+      <c r="H74" s="125">
         <v>3</v>
       </c>
-      <c r="I74" s="155" t="s">
-        <v>572</v>
+      <c r="I74" s="154" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="125"/>
-      <c r="B75" s="135" t="s">
+      <c r="A75" s="124"/>
+      <c r="B75" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="C75" s="126">
+      <c r="C75" s="125">
         <v>3</v>
       </c>
-      <c r="G75" s="135" t="s">
+      <c r="G75" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="H75" s="126">
+      <c r="H75" s="125">
         <v>2.5</v>
       </c>
-      <c r="I75" s="155"/>
-      <c r="J75" s="135" t="s">
+      <c r="I75" s="154"/>
+      <c r="J75" s="134" t="s">
         <v>235</v>
       </c>
-      <c r="K75" s="126">
+      <c r="K75" s="125">
         <v>0.5</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B76" s="135" t="s">
+      <c r="B76" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="126">
+      <c r="C76" s="125">
         <v>2</v>
       </c>
-      <c r="J76" s="135" t="s">
+      <c r="J76" s="134" t="s">
         <v>281</v>
       </c>
-      <c r="K76" s="126">
+      <c r="K76" s="125">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="34" x14ac:dyDescent="0.25">
-      <c r="B77" s="135" t="s">
+      <c r="B77" s="134" t="s">
         <v>346</v>
       </c>
-      <c r="C77" s="126">
+      <c r="C77" s="125">
         <v>2</v>
       </c>
-      <c r="J77" s="135" t="s">
+      <c r="J77" s="134" t="s">
         <v>294</v>
       </c>
-      <c r="K77" s="126">
+      <c r="K77" s="125">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B78" s="135" t="s">
+      <c r="B78" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="126">
+      <c r="C78" s="125">
         <v>2</v>
       </c>
-      <c r="J78" s="135" t="s">
+      <c r="J78" s="134" t="s">
         <v>282</v>
       </c>
-      <c r="K78" s="126">
+      <c r="K78" s="125">
         <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="34" x14ac:dyDescent="0.25">
-      <c r="A79" s="125"/>
-      <c r="B79" s="135" t="s">
+      <c r="A79" s="124"/>
+      <c r="B79" s="134" t="s">
         <v>236</v>
       </c>
-      <c r="C79" s="126">
+      <c r="C79" s="125">
         <v>3</v>
       </c>
-      <c r="M79" s="135" t="s">
+      <c r="M79" s="134" t="s">
         <v>236</v>
       </c>
-      <c r="N79" s="126">
+      <c r="N79" s="125">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B80" s="135" t="s">
+      <c r="B80" s="134" t="s">
         <v>340</v>
       </c>
-      <c r="C80" s="126">
+      <c r="C80" s="125">
         <v>3</v>
       </c>
-      <c r="M80" s="135" t="s">
+      <c r="M80" s="134" t="s">
         <v>340</v>
       </c>
-      <c r="N80" s="126">
+      <c r="N80" s="125">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="34" x14ac:dyDescent="0.25">
-      <c r="A81" s="125"/>
-      <c r="B81" s="135" t="s">
+      <c r="A81" s="124"/>
+      <c r="B81" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="C81" s="126">
+      <c r="C81" s="125">
         <v>3</v>
       </c>
-      <c r="P81" s="135" t="s">
+      <c r="P81" s="134" t="s">
         <v>237</v>
       </c>
-      <c r="Q81" s="126">
+      <c r="Q81" s="125">
         <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B82" s="135" t="s">
+      <c r="B82" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="C82" s="126">
+      <c r="C82" s="125">
         <v>2</v>
       </c>
-      <c r="P82" s="135" t="s">
+      <c r="P82" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="Q82" s="126">
+      <c r="Q82" s="125">
         <v>2</v>
       </c>
     </row>
@@ -15013,27 +15647,27 @@
       <c r="B83" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="C83" s="126">
+      <c r="C83" s="125">
         <f>SUM(C72:C82)</f>
         <v>28</v>
       </c>
-      <c r="E83" s="126">
+      <c r="E83" s="125">
         <f>SUM(E72:E81)</f>
         <v>4.5</v>
       </c>
-      <c r="H83" s="126">
+      <c r="H83" s="125">
         <f>SUM(H72:H81)</f>
         <v>6</v>
       </c>
-      <c r="K83" s="126">
+      <c r="K83" s="125">
         <f>SUM(K72:K81)</f>
         <v>6</v>
       </c>
-      <c r="N83" s="126">
+      <c r="N83" s="125">
         <f>SUM(N72:N81)</f>
         <v>6</v>
       </c>
-      <c r="Q83" s="126">
+      <c r="Q83" s="125">
         <f>SUM(Q72:Q82)</f>
         <v>5</v>
       </c>
@@ -15059,8 +15693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
@@ -15135,7 +15769,7 @@
       <c r="D4" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="F4" s="154" t="s">
+      <c r="F4" s="153" t="s">
         <v>241</v>
       </c>
       <c r="G4" s="67"/>
@@ -15187,8 +15821,8 @@
       <c r="F9" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="H9" s="121" t="s">
-        <v>477</v>
+      <c r="H9" s="120" t="s">
+        <v>476</v>
       </c>
       <c r="I9" s="67"/>
       <c r="J9" s="94" t="s">
@@ -15234,7 +15868,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="61"/>
-      <c r="E15" s="124"/>
+      <c r="E15" s="123"/>
       <c r="H15" s="73"/>
       <c r="I15" s="67"/>
     </row>
@@ -15296,7 +15930,7 @@
       </c>
       <c r="G22" s="67"/>
       <c r="H22" s="94" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I22" s="67"/>
       <c r="J22" s="94" t="s">
@@ -15327,8 +15961,8 @@
       <c r="D24" s="94" t="s">
         <v>380</v>
       </c>
-      <c r="F24" s="121" t="s">
-        <v>486</v>
+      <c r="F24" s="120" t="s">
+        <v>485</v>
       </c>
       <c r="G24" s="67"/>
       <c r="H24" s="94" t="s">
@@ -15454,492 +16088,492 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="116"/>
-    <col min="2" max="2" width="31.85546875" style="118" customWidth="1"/>
-    <col min="3" max="3" width="4.7109375" style="117" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="118" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="118" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" style="118" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.85546875" style="118" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="118" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.85546875" style="118" customWidth="1"/>
-    <col min="11" max="11" width="4.42578125" style="118" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="118"/>
+    <col min="1" max="1" width="8.7109375" style="115"/>
+    <col min="2" max="2" width="31.85546875" style="117" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" style="116" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="117" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="117" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" style="117" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.85546875" style="117" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="117" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.85546875" style="117" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" style="117" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7109375" style="117"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B2" s="109" t="s">
+    <row r="2" spans="1:11" s="108" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B2" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="109" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="110" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="108" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="108" t="s">
         <v>157</v>
       </c>
-      <c r="J2" s="109" t="s">
+      <c r="J2" s="108" t="s">
         <v>199</v>
       </c>
-      <c r="K2" s="109" t="s">
+      <c r="K2" s="108" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+    <row r="3" spans="1:11" s="108" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A3" s="111" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="K3" s="113"/>
-    </row>
-    <row r="4" spans="1:11" s="109" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A4" s="112"/>
-      <c r="B4" s="114" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="K3" s="112"/>
+    </row>
+    <row r="4" spans="1:11" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A4" s="111"/>
+      <c r="B4" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="119" t="s">
+        <v>488</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" s="113"/>
+      <c r="H4" s="136" t="s">
+        <v>534</v>
+      </c>
+      <c r="I4" s="113"/>
+      <c r="J4" s="119" t="s">
+        <v>489</v>
+      </c>
+      <c r="K4" s="112"/>
+    </row>
+    <row r="5" spans="1:11" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A5" s="111"/>
+      <c r="B5" s="113" t="s">
+        <v>443</v>
+      </c>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="120" t="s">
-        <v>489</v>
-      </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114" t="s">
+      <c r="G5" s="113"/>
+      <c r="H5" s="113" t="s">
+        <v>456</v>
+      </c>
+      <c r="I5" s="113"/>
+      <c r="J5" s="137" t="s">
+        <v>535</v>
+      </c>
+      <c r="K5" s="114"/>
+    </row>
+    <row r="6" spans="1:11" s="108" customFormat="1" ht="34" x14ac:dyDescent="0.25">
+      <c r="A6" s="111"/>
+      <c r="B6" s="113" t="s">
         <v>446</v>
       </c>
-      <c r="G4" s="114"/>
-      <c r="H4" s="137" t="s">
-        <v>535</v>
-      </c>
-      <c r="I4" s="114"/>
-      <c r="J4" s="120" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="113" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="G6" s="113"/>
+      <c r="H6" s="119" t="s">
         <v>490</v>
       </c>
-      <c r="K4" s="113"/>
-    </row>
-    <row r="5" spans="1:11" s="109" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
-      <c r="B5" s="114" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="114"/>
-      <c r="D5" s="114" t="s">
+      <c r="I6" s="113"/>
+      <c r="J6" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="K6" s="114"/>
+    </row>
+    <row r="7" spans="1:11" s="108" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="119" t="s">
+        <v>474</v>
+      </c>
+      <c r="E7" s="113"/>
+      <c r="F7" s="119" t="s">
+        <v>478</v>
+      </c>
+      <c r="G7" s="113"/>
+      <c r="H7" s="122" t="s">
+        <v>481</v>
+      </c>
+      <c r="I7" s="113"/>
+      <c r="K7" s="112"/>
+    </row>
+    <row r="8" spans="1:11" s="108" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="122" t="s">
+        <v>481</v>
+      </c>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="112"/>
+    </row>
+    <row r="9" spans="1:11" s="108" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="112"/>
+    </row>
+    <row r="10" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="111"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="I10" s="113"/>
+    </row>
+    <row r="11" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+    </row>
+    <row r="12" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="111"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="111"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="119" t="s">
+        <v>492</v>
+      </c>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113" t="s">
+        <v>459</v>
+      </c>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="111"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+    </row>
+    <row r="16" spans="1:11" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A16" s="111"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+    </row>
+    <row r="17" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+    </row>
+    <row r="18" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A18" s="111"/>
+      <c r="B18" s="113" t="s">
+        <v>440</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" s="113"/>
+      <c r="F18" s="119" t="s">
+        <v>484</v>
+      </c>
+      <c r="G18" s="113"/>
+      <c r="H18" s="119" t="s">
+        <v>483</v>
+      </c>
+      <c r="I18" s="113"/>
+      <c r="J18" s="119" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A19" s="111"/>
+      <c r="B19" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="119" t="s">
+        <v>473</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="119" t="s">
+        <v>479</v>
+      </c>
+      <c r="G19" s="113"/>
+      <c r="H19" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="I19" s="113"/>
+      <c r="J19" s="121" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
+      <c r="B20" s="113" t="s">
+        <v>466</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="136" t="s">
+        <v>523</v>
+      </c>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
+      <c r="B21" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113" t="s">
         <v>458</v>
       </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114" t="s">
-        <v>457</v>
-      </c>
-      <c r="I5" s="114"/>
-      <c r="J5" s="138" t="s">
-        <v>536</v>
-      </c>
-      <c r="K5" s="115"/>
-    </row>
-    <row r="6" spans="1:11" s="109" customFormat="1" ht="34" x14ac:dyDescent="0.25">
-      <c r="A6" s="112"/>
-      <c r="B6" s="114" t="s">
-        <v>447</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114" t="s">
-        <v>445</v>
-      </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114" t="s">
-        <v>448</v>
-      </c>
-      <c r="G6" s="114"/>
-      <c r="H6" s="120" t="s">
+      <c r="E21" s="113"/>
+      <c r="F21" s="119" t="s">
+        <v>480</v>
+      </c>
+      <c r="G21" s="113"/>
+      <c r="H21" s="121" t="s">
+        <v>482</v>
+      </c>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A22" s="111"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113" t="s">
+        <v>454</v>
+      </c>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" s="111"/>
+      <c r="B23" s="119" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113" t="s">
+        <v>462</v>
+      </c>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="I23" s="113"/>
+      <c r="J23" s="119" t="s">
         <v>491</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114" t="s">
-        <v>453</v>
-      </c>
-      <c r="K6" s="115"/>
-    </row>
-    <row r="7" spans="1:11" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B7" s="114"/>
-      <c r="C7" s="114"/>
-      <c r="D7" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="120" t="s">
-        <v>479</v>
-      </c>
-      <c r="G7" s="114"/>
-      <c r="H7" s="123" t="s">
-        <v>482</v>
-      </c>
-      <c r="I7" s="114"/>
-      <c r="K7" s="113"/>
-    </row>
-    <row r="8" spans="1:11" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B8" s="114"/>
-      <c r="C8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="123" t="s">
-        <v>482</v>
-      </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114" t="s">
-        <v>451</v>
-      </c>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="113"/>
-    </row>
-    <row r="9" spans="1:11" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114" t="s">
-        <v>461</v>
-      </c>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="113"/>
-    </row>
-    <row r="10" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A10" s="112"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114" t="s">
-        <v>462</v>
-      </c>
-      <c r="I10" s="114"/>
-    </row>
-    <row r="11" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A11" s="112"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-    </row>
-    <row r="12" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="114"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="112"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="112"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="114"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="120" t="s">
-        <v>493</v>
-      </c>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114" t="s">
-        <v>460</v>
-      </c>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="112"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-    </row>
-    <row r="16" spans="1:11" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="112"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-    </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="114"/>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-    </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="112"/>
-      <c r="B18" s="114" t="s">
-        <v>441</v>
-      </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="120" t="s">
-        <v>471</v>
-      </c>
-      <c r="E18" s="114"/>
-      <c r="F18" s="120" t="s">
-        <v>485</v>
-      </c>
-      <c r="G18" s="114"/>
-      <c r="H18" s="120" t="s">
-        <v>484</v>
-      </c>
-      <c r="I18" s="114"/>
-      <c r="J18" s="120" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="112"/>
-      <c r="B19" s="114" t="s">
-        <v>465</v>
-      </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="120" t="s">
-        <v>474</v>
-      </c>
-      <c r="E19" s="114"/>
-      <c r="F19" s="120" t="s">
-        <v>480</v>
-      </c>
-      <c r="G19" s="114"/>
-      <c r="H19" s="122" t="s">
-        <v>478</v>
-      </c>
-      <c r="I19" s="114"/>
-      <c r="J19" s="122" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="112"/>
-      <c r="B20" s="114" t="s">
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A24" s="111"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+    </row>
+    <row r="25" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A25" s="111"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+    </row>
+    <row r="26" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A26" s="111"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113" t="s">
         <v>467</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114" t="s">
-        <v>449</v>
-      </c>
-      <c r="E20" s="114"/>
-      <c r="F20" s="137" t="s">
-        <v>524</v>
-      </c>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114" t="s">
-        <v>464</v>
-      </c>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="112"/>
-      <c r="B21" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114" t="s">
-        <v>459</v>
-      </c>
-      <c r="E21" s="114"/>
-      <c r="F21" s="120" t="s">
-        <v>481</v>
-      </c>
-      <c r="G21" s="114"/>
-      <c r="H21" s="122" t="s">
-        <v>483</v>
-      </c>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114" t="s">
-        <v>455</v>
-      </c>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114" t="s">
-        <v>452</v>
-      </c>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-    </row>
-    <row r="23" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="112"/>
-      <c r="B23" s="120" t="s">
-        <v>472</v>
-      </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114" t="s">
-        <v>463</v>
-      </c>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114" t="s">
-        <v>456</v>
-      </c>
-      <c r="I23" s="114"/>
-      <c r="J23" s="120" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-    </row>
-    <row r="25" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="112"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-    </row>
-    <row r="26" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="112"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114" t="s">
+      <c r="I26" s="113"/>
+      <c r="J26" s="113" t="s">
         <v>468</v>
       </c>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
+    </row>
+    <row r="27" spans="1:10" s="112" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A27" s="111"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="114"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" s="114"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="114"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="114"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -16195,31 +16829,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M53"/>
+  <dimension ref="A2:M55"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="139" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="140" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="139" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="141" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="139" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="139" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="139" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.28515625" style="141" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="139" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.28515625" style="139" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="139" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" style="139" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="139" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.7109375" style="139"/>
+    <col min="1" max="1" width="20.85546875" style="138" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="139" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="138" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="140" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="138" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" style="138" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="138" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" style="140" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" style="138" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.28515625" style="138" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" style="138" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" style="138" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="138" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.7109375" style="138"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -16227,7 +16861,7 @@
       <c r="A3" s="49"/>
       <c r="B3" s="50"/>
       <c r="C3" s="51" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D3" s="51"/>
       <c r="E3" s="51" t="s">
@@ -16250,7 +16884,7 @@
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="53" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>108</v>
@@ -16260,11 +16894,11 @@
       </c>
       <c r="D4" s="55"/>
       <c r="E4" s="55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F4" s="55"/>
       <c r="G4" s="55" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H4" s="55"/>
       <c r="I4" s="55" t="s">
@@ -16284,11 +16918,11 @@
       <c r="B5" s="99"/>
       <c r="C5" s="100"/>
       <c r="D5" s="100"/>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="162" t="s">
         <v>409</v>
       </c>
       <c r="F5" s="100"/>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="163" t="s">
         <v>422</v>
       </c>
       <c r="H5" s="100"/>
@@ -16305,11 +16939,11 @@
       <c r="B6" s="99"/>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="162" t="s">
         <v>409</v>
       </c>
       <c r="F6" s="100"/>
-      <c r="G6" s="103" t="s">
+      <c r="G6" s="163" t="s">
         <v>422</v>
       </c>
       <c r="H6" s="100"/>
@@ -16326,11 +16960,11 @@
       <c r="B7" s="99"/>
       <c r="C7" s="100"/>
       <c r="D7" s="100"/>
-      <c r="E7" s="142" t="s">
+      <c r="E7" s="162" t="s">
         <v>409</v>
       </c>
       <c r="F7" s="100"/>
-      <c r="G7" s="103" t="s">
+      <c r="G7" s="163" t="s">
         <v>422</v>
       </c>
       <c r="H7" s="100"/>
@@ -16347,11 +16981,11 @@
       <c r="B8" s="99"/>
       <c r="C8" s="100"/>
       <c r="D8" s="100"/>
-      <c r="E8" s="142" t="s">
+      <c r="E8" s="162" t="s">
         <v>409</v>
       </c>
       <c r="F8" s="100"/>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="163" t="s">
         <v>422</v>
       </c>
       <c r="H8" s="100"/>
@@ -16368,11 +17002,11 @@
       <c r="B9" s="99"/>
       <c r="C9" s="100"/>
       <c r="D9" s="100"/>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="162" t="s">
         <v>409</v>
       </c>
       <c r="F9" s="100"/>
-      <c r="G9" s="103" t="s">
+      <c r="G9" s="163" t="s">
         <v>422</v>
       </c>
       <c r="H9" s="100"/>
@@ -16383,603 +17017,678 @@
       <c r="M9" s="101"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="139" t="s">
+      <c r="A10" s="138" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="142" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="141"/>
+      <c r="D10" s="143"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H10" s="143"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="141"/>
+      <c r="K10" s="164" t="s">
+        <v>594</v>
+      </c>
+      <c r="L10" s="141"/>
+      <c r="M10" s="144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="138" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="C11" s="141"/>
+      <c r="D11" s="143"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H11" s="143"/>
+      <c r="I11" s="164" t="s">
+        <v>593</v>
+      </c>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141" t="s">
+        <v>409</v>
+      </c>
+      <c r="L11" s="141"/>
+      <c r="M11" s="144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="138" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="C12" s="141"/>
+      <c r="D12" s="143"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H12" s="143"/>
+      <c r="I12" s="164" t="s">
+        <v>593</v>
+      </c>
+      <c r="J12" s="141"/>
+      <c r="K12" s="141" t="s">
+        <v>409</v>
+      </c>
+      <c r="L12" s="141"/>
+      <c r="M12" s="144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="138" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="C13" s="141"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="164" t="s">
+        <v>595</v>
+      </c>
+      <c r="F13" s="141"/>
+      <c r="G13" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H13" s="143"/>
+      <c r="I13" s="141" t="s">
+        <v>408</v>
+      </c>
+      <c r="J13" s="141"/>
+      <c r="K13" s="141" t="s">
+        <v>409</v>
+      </c>
+      <c r="L13" s="141"/>
+      <c r="M13" s="144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="138" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="142" t="s">
         <v>546</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142" t="s">
+      <c r="C14" s="141"/>
+      <c r="D14" s="143"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="162" t="s">
         <v>408</v>
       </c>
-      <c r="H10" s="144"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142" t="s">
+      <c r="H14" s="143"/>
+      <c r="I14" s="164" t="s">
+        <v>593</v>
+      </c>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141" t="s">
         <v>409</v>
       </c>
-      <c r="L10" s="142"/>
-      <c r="M10" s="145" t="s">
+      <c r="L14" s="141"/>
+      <c r="M14" s="144" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="139" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="143" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="138" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="C15" s="141"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="164" t="s">
+        <v>595</v>
+      </c>
+      <c r="F15" s="141"/>
+      <c r="G15" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H15" s="143"/>
+      <c r="I15" s="141" t="s">
+        <v>408</v>
+      </c>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141" t="s">
+        <v>409</v>
+      </c>
+      <c r="L15" s="141"/>
+      <c r="M15" s="144" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="138" t="s">
+        <v>406</v>
+      </c>
+      <c r="B16" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="141"/>
+      <c r="D16" s="143"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="144" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="138" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142" t="s">
+      <c r="B17" s="142" t="s">
+        <v>547</v>
+      </c>
+      <c r="C17" s="141"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="164" t="s">
+        <v>593</v>
+      </c>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="144"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="138" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="142" t="s">
+        <v>547</v>
+      </c>
+      <c r="C18" s="141"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="164" t="s">
+        <v>595</v>
+      </c>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="141" t="s">
         <v>408</v>
       </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142" t="s">
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="144"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="138" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19" s="145" t="s">
+        <v>548</v>
+      </c>
+      <c r="C19" s="141"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="162" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" s="143"/>
+      <c r="I19" s="164" t="s">
+        <v>593</v>
+      </c>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141" t="s">
         <v>409</v>
       </c>
-      <c r="L11" s="142"/>
-      <c r="M11" s="145" t="s">
+      <c r="L19" s="141"/>
+      <c r="M19" s="144" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="139" t="s">
-        <v>402</v>
-      </c>
-      <c r="B12" s="143" t="s">
-        <v>521</v>
-      </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="L12" s="142"/>
-      <c r="M12" s="145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="139" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" s="143" t="s">
-        <v>521</v>
-      </c>
-      <c r="C13" s="142"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-      <c r="K13" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="L13" s="142"/>
-      <c r="M13" s="145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="139" t="s">
-        <v>405</v>
-      </c>
-      <c r="B14" s="143" t="s">
-        <v>547</v>
-      </c>
-      <c r="C14" s="142"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="H14" s="144"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-      <c r="K14" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="L14" s="142"/>
-      <c r="M14" s="145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15" s="143" t="s">
-        <v>521</v>
-      </c>
-      <c r="C15" s="142"/>
-      <c r="D15" s="144"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="H15" s="144"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-      <c r="K15" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="L15" s="142"/>
-      <c r="M15" s="145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="139" t="s">
-        <v>406</v>
-      </c>
-      <c r="B16" s="143" t="s">
-        <v>521</v>
-      </c>
-      <c r="C16" s="142"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="J16" s="142"/>
-      <c r="K16" s="142"/>
-      <c r="L16" s="142"/>
-      <c r="M16" s="145" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="139" t="s">
-        <v>522</v>
-      </c>
-      <c r="B17" s="143" t="s">
-        <v>548</v>
-      </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="142"/>
-      <c r="J17" s="142"/>
-      <c r="K17" s="142"/>
-      <c r="L17" s="142"/>
-      <c r="M17" s="145"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="139" t="s">
-        <v>523</v>
-      </c>
-      <c r="B18" s="143" t="s">
-        <v>548</v>
-      </c>
-      <c r="C18" s="142"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="142"/>
-      <c r="J18" s="142"/>
-      <c r="K18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="145"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="139" t="s">
-        <v>404</v>
-      </c>
-      <c r="B19" s="146" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="138" t="s">
         <v>549</v>
       </c>
-      <c r="C19" s="142"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="H19" s="144"/>
-      <c r="I19" s="142"/>
-      <c r="J19" s="142"/>
-      <c r="K19" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="L19" s="142"/>
-      <c r="M19" s="145" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="139" t="s">
+      <c r="B20" s="145" t="s">
         <v>550</v>
       </c>
-      <c r="B20" s="146" t="s">
+      <c r="C20" s="141"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="144"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="138" t="s">
         <v>551</v>
       </c>
-      <c r="C20" s="142"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="144"/>
-      <c r="I20" s="142"/>
-      <c r="J20" s="142"/>
-      <c r="K20" s="142"/>
-      <c r="L20" s="142"/>
-      <c r="M20" s="145"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="139" t="s">
+      <c r="B21" s="145" t="s">
+        <v>550</v>
+      </c>
+      <c r="C21" s="141"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="144"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="138" t="s">
         <v>552</v>
       </c>
-      <c r="B21" s="146" t="s">
-        <v>551</v>
-      </c>
-      <c r="C21" s="142"/>
-      <c r="D21" s="144"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="144"/>
-      <c r="I21" s="142"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="142"/>
-      <c r="L21" s="142"/>
-      <c r="M21" s="145"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="139" t="s">
+      <c r="B22" s="145"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="144"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="138" t="s">
         <v>553</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="144"/>
-      <c r="I22" s="142"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="142"/>
-      <c r="L22" s="142"/>
-      <c r="M22" s="145"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="139" t="s">
+      <c r="B23" s="145"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="144"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="138" t="s">
         <v>554</v>
       </c>
-      <c r="B23" s="146"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="144"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="142"/>
-      <c r="J23" s="142"/>
-      <c r="K23" s="142"/>
-      <c r="L23" s="142"/>
-      <c r="M23" s="145"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="139" t="s">
+      <c r="B24" s="145"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="141"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="144"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="138" t="s">
         <v>555</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="144"/>
-      <c r="I24" s="142"/>
-      <c r="J24" s="142"/>
-      <c r="K24" s="142"/>
-      <c r="L24" s="142"/>
-      <c r="M24" s="145"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="139" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="144"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="138" t="s">
         <v>556</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="142"/>
-      <c r="J25" s="142"/>
-      <c r="K25" s="142"/>
-      <c r="L25" s="142"/>
-      <c r="M25" s="145"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="139" t="s">
+      <c r="B26" s="145"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="144"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="161" t="s">
+        <v>596</v>
+      </c>
+      <c r="B27" s="145"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="143"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="164" t="s">
+        <v>593</v>
+      </c>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="144"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28" s="145"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="144"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="142"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="144"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="138" t="s">
+        <v>411</v>
+      </c>
+      <c r="B30" s="142"/>
+      <c r="C30" s="141"/>
+      <c r="D30" s="143"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="162" t="s">
+        <v>423</v>
+      </c>
+      <c r="H30" s="143"/>
+      <c r="I30" s="141" t="s">
         <v>557</v>
       </c>
-      <c r="B26" s="146"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="142"/>
-      <c r="J26" s="142"/>
-      <c r="K26" s="142"/>
-      <c r="L26" s="142"/>
-      <c r="M26" s="145"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="143"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="144"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="142"/>
-      <c r="J27" s="142"/>
-      <c r="K27" s="142"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="145"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
-        <v>411</v>
-      </c>
-      <c r="B28" s="143"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="144"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142" t="s">
+      <c r="J30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="144"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="138" t="s">
+        <v>438</v>
+      </c>
+      <c r="B31" s="142"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="143"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="162" t="s">
         <v>423</v>
       </c>
-      <c r="H28" s="144"/>
-      <c r="I28" s="142" t="s">
+      <c r="H31" s="141"/>
+      <c r="I31" s="141" t="s">
         <v>558</v>
       </c>
-      <c r="J28" s="142"/>
-      <c r="L28" s="142"/>
-      <c r="M28" s="145"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="139" t="s">
-        <v>439</v>
-      </c>
-      <c r="B29" s="143"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="144"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142" t="s">
-        <v>423</v>
-      </c>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142" t="s">
+      <c r="L31" s="141"/>
+      <c r="M31" s="144"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="146"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="148"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="150"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C34" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="D34" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="47" t="s">
         <v>559</v>
       </c>
-      <c r="L29" s="142"/>
-      <c r="M29" s="145"/>
-    </row>
-    <row r="30" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="151"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" s="66" t="s">
+      <c r="F34" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="G34" s="47" t="s">
         <v>560</v>
       </c>
-      <c r="F32" s="47" t="s">
+      <c r="H34" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="G32" s="47" t="s">
+      <c r="I34" s="47" t="s">
         <v>561</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="J34" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="K34" s="47" t="s">
         <v>562</v>
       </c>
-      <c r="J32" s="47" t="s">
+      <c r="L34" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="K32" s="47" t="s">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="47" t="s">
         <v>563</v>
       </c>
-      <c r="L32" s="47" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="C35" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="E35" s="138" t="s">
+        <v>399</v>
+      </c>
+      <c r="F35" s="140"/>
+      <c r="G35" s="60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H35" s="68"/>
+      <c r="I35" s="138" t="s">
         <v>564</v>
       </c>
-      <c r="C33" s="139" t="s">
-        <v>395</v>
-      </c>
-      <c r="E33" s="139" t="s">
-        <v>399</v>
-      </c>
-      <c r="F33" s="141"/>
-      <c r="G33" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="139" t="s">
+      <c r="K35" s="138" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="47"/>
+      <c r="C36" s="138" t="s">
+        <v>397</v>
+      </c>
+      <c r="E36" s="60" t="s">
         <v>565</v>
       </c>
-      <c r="K33" s="139" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
-      <c r="C34" s="139" t="s">
-        <v>397</v>
-      </c>
-      <c r="E34" s="60" t="s">
+      <c r="F36" s="68"/>
+      <c r="G36" s="60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="D37" s="71"/>
+      <c r="E37" s="60" t="s">
         <v>566</v>
       </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D35" s="71"/>
-      <c r="E35" s="60" t="s">
+      <c r="F37" s="68"/>
+      <c r="G37" s="60" t="s">
+        <v>398</v>
+      </c>
+      <c r="H37" s="68"/>
+      <c r="J37" s="60"/>
+      <c r="L37" s="60"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="138" t="s">
         <v>567</v>
       </c>
-      <c r="F35" s="68"/>
-      <c r="G35" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="H35" s="68"/>
-      <c r="J35" s="60"/>
-      <c r="L35" s="60"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="139" t="s">
+      <c r="D38" s="71"/>
+      <c r="E38" s="151" t="s">
+        <v>424</v>
+      </c>
+      <c r="F38" s="68"/>
+      <c r="G38" s="138" t="s">
         <v>568</v>
       </c>
-      <c r="D36" s="71"/>
-      <c r="E36" s="152" t="s">
-        <v>424</v>
-      </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="139" t="s">
-        <v>569</v>
-      </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="75"/>
-      <c r="J36" s="60"/>
-      <c r="L36" s="60"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="141"/>
-      <c r="H37" s="139"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C38" s="139" t="s">
+      <c r="H38" s="71"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="60"/>
+      <c r="L38" s="60"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="140"/>
+      <c r="H39" s="138"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C40" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="E38" s="139" t="s">
+      <c r="E40" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="G38" s="139" t="s">
+      <c r="G40" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="I38" s="139" t="s">
+      <c r="I40" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="K38" s="139" t="s">
+      <c r="K40" s="138" t="s">
         <v>412</v>
       </c>
-      <c r="M38" s="139" t="s">
+      <c r="M40" s="138" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I39" s="72"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I41" s="72"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="139" t="s">
+      <c r="C42" s="138" t="s">
         <v>394</v>
       </c>
-      <c r="F40" s="153"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="F41" s="153"/>
-      <c r="H41" s="68"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
-      <c r="E42" s="65"/>
-      <c r="G42" s="59"/>
+      <c r="F42" s="152"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="47"/>
+      <c r="F43" s="152"/>
+      <c r="H43" s="68"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="139"/>
+      <c r="A44" s="47"/>
+      <c r="E44" s="65"/>
+      <c r="G44" s="59"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="139"/>
-      <c r="C45" s="59" t="s">
+      <c r="A45" s="47"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="138"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="138"/>
+      <c r="C47" s="59" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="139"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="139"/>
-    </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="139"/>
-    </row>
-    <row r="49" s="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="139" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="139" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="B48" s="138"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" s="138"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="138"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="H51" s="138"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="138"/>
+      <c r="D52" s="138"/>
+      <c r="H52" s="138"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="138"/>
+      <c r="D53" s="138"/>
+      <c r="H53" s="138"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="138"/>
+      <c r="D54" s="138"/>
+      <c r="H54" s="138"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="138"/>
+      <c r="D55" s="138"/>
+      <c r="H55" s="138"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="C4:E4 I4:I9 K4:K9 M4:M9 C5:D9 G4:G9">
@@ -17012,12 +17721,12 @@
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
+  <conditionalFormatting sqref="I38">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
@@ -17257,47 +17966,47 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C7" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" s="7" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -17310,12 +18019,12 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
@@ -17323,12 +18032,12 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -17336,12 +18045,12 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -17349,12 +18058,12 @@
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -17362,12 +18071,12 @@
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
@@ -17375,7 +18084,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -17383,12 +18092,12 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -17396,7 +18105,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
@@ -17404,7 +18113,7 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -17412,7 +18121,7 @@
         <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -17420,7 +18129,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -17428,7 +18137,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
@@ -17469,7 +18178,7 @@
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C39" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
